--- a/data/formatted/basic/basicdata200001.xlsx
+++ b/data/formatted/basic/basicdata200001.xlsx
@@ -1,30 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petri\Documents\CS-4641\machine-learning-madness\data\formatted\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6433BD85-1D83-40F3-B46F-54B684CC6D72}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{49A08C1E-3DBF-40A9-BCCB-7DE402802890}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
@@ -33,293 +22,311 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>School</t>
-  </si>
-  <si>
-    <t>OverallWin</t>
-  </si>
-  <si>
-    <t>OverallLoss</t>
-  </si>
-  <si>
-    <t>SimpleRanking</t>
-  </si>
-  <si>
-    <t>ScheduleStrength</t>
-  </si>
-  <si>
-    <t>ConferenceWin</t>
-  </si>
-  <si>
-    <t>ConferenceLoss</t>
-  </si>
-  <si>
-    <t>HomeWin</t>
-  </si>
-  <si>
-    <t>HomeLoss</t>
-  </si>
-  <si>
-    <t>AwayWin</t>
-  </si>
-  <si>
-    <t>AwayLoss</t>
-  </si>
-  <si>
-    <t>Points</t>
-  </si>
-  <si>
-    <t>PointsAgainst</t>
-  </si>
-  <si>
-    <t>FieldGoals</t>
-  </si>
-  <si>
-    <t>FieldGoalsAtt</t>
-  </si>
-  <si>
-    <t>3P</t>
-  </si>
-  <si>
-    <t>3PAtt</t>
-  </si>
-  <si>
-    <t>FreeThrows</t>
-  </si>
-  <si>
-    <t>FreeThrowsAtt</t>
-  </si>
-  <si>
-    <t>OffensiveReb</t>
-  </si>
-  <si>
-    <t>TotalReb</t>
-  </si>
-  <si>
-    <t>Assists</t>
-  </si>
-  <si>
-    <t>Steals</t>
-  </si>
-  <si>
-    <t>Blocks</t>
-  </si>
-  <si>
-    <t>TurnoverPct</t>
-  </si>
-  <si>
-    <t>PersonalFouls</t>
-  </si>
-  <si>
-    <t>Alabama State</t>
-  </si>
-  <si>
-    <t>Arizona</t>
-  </si>
-  <si>
-    <t>Arkansas</t>
-  </si>
-  <si>
-    <t>Boston College</t>
-  </si>
-  <si>
-    <t>Brigham Young</t>
-  </si>
-  <si>
-    <t>Butler</t>
-  </si>
-  <si>
-    <t>Cal State Northridge</t>
-  </si>
-  <si>
-    <t>University of California</t>
-  </si>
-  <si>
-    <t>Charlotte</t>
-  </si>
-  <si>
-    <t>Cincinnati</t>
-  </si>
-  <si>
-    <t>Creighton</t>
-  </si>
-  <si>
-    <t>Duke</t>
-  </si>
-  <si>
-    <t>Eastern Illinois</t>
-  </si>
-  <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>Fresno State</t>
-  </si>
-  <si>
-    <t>George Mason</t>
-  </si>
-  <si>
-    <t>Georgetown</t>
-  </si>
-  <si>
-    <t>Georgia State</t>
-  </si>
-  <si>
-    <t>Georgia Tech</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Gonzaga</t>
-  </si>
-  <si>
-    <t>Hampton</t>
-  </si>
-  <si>
-    <t>Hawaii</t>
-  </si>
-  <si>
-    <t>Hofstra</t>
-  </si>
-  <si>
-    <t>Holy Cross</t>
-  </si>
-  <si>
-    <t>Illinois</t>
-  </si>
-  <si>
-    <t>Indiana State</t>
-  </si>
-  <si>
-    <t>Indiana</t>
-  </si>
-  <si>
-    <t>Iona</t>
-  </si>
-  <si>
-    <t>Iowa State</t>
-  </si>
-  <si>
-    <t>Iowa</t>
-  </si>
-  <si>
-    <t>Kansas</t>
-  </si>
-  <si>
-    <t>Kent State</t>
-  </si>
-  <si>
-    <t>Kentucky</t>
-  </si>
-  <si>
-    <t>Maryland</t>
-  </si>
-  <si>
-    <t>Michigan State</t>
-  </si>
-  <si>
-    <t>Mississippi</t>
-  </si>
-  <si>
-    <t>Missouri</t>
-  </si>
-  <si>
-    <t>Monmouth</t>
-  </si>
-  <si>
-    <t>North Carolina-Greensboro</t>
-  </si>
-  <si>
-    <t>North Carolina</t>
-  </si>
-  <si>
-    <t>Northwestern State</t>
-  </si>
-  <si>
-    <t>Notre Dame</t>
-  </si>
-  <si>
-    <t>Ohio State</t>
-  </si>
-  <si>
-    <t>Oklahoma State</t>
-  </si>
-  <si>
-    <t>Oklahoma</t>
-  </si>
-  <si>
-    <t>Penn State</t>
-  </si>
-  <si>
-    <t>Princeton</t>
-  </si>
-  <si>
-    <t>Providence</t>
-  </si>
-  <si>
-    <t>Saint Joseph's</t>
-  </si>
-  <si>
-    <t>Southern California</t>
-  </si>
-  <si>
-    <t>Southern Utah</t>
-  </si>
-  <si>
-    <t>Stanford</t>
-  </si>
-  <si>
-    <t>Syracuse</t>
-  </si>
-  <si>
-    <t>Temple</t>
-  </si>
-  <si>
-    <t>Tennessee</t>
-  </si>
-  <si>
-    <t>Texas</t>
-  </si>
-  <si>
-    <t>UCLA</t>
-  </si>
-  <si>
-    <t>Utah State</t>
-  </si>
-  <si>
-    <t>Virginia</t>
-  </si>
-  <si>
-    <t>Wake Forest</t>
-  </si>
-  <si>
-    <t>Western Kentucky</t>
-  </si>
-  <si>
-    <t>Winthrop</t>
-  </si>
-  <si>
-    <t>Wisconsin</t>
-  </si>
-  <si>
-    <t>Xavier</t>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">School</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OverallWin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OverallLoss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SimpleRanking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ScheduleStrength</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ConferenceWin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ConferenceLoss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HomeWin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HomeLoss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AwayWin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AwayLoss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Points</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PointsAgainst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FieldGoals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FieldGoalsAtt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3PAtt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FreeThrows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FreeThrowsAtt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OffensiveReb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TotalReb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blocks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TurnoverPct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PersonalFouls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alabama State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arizona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arkansas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boston College</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brigham Young</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cal State Northridge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of California</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charlotte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cincinnati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creighton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eastern Illinois</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Florida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fresno State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">George Mason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgetown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgia State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgia Tech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gonzaga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hampton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hawaii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hofstra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holy Cross</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illinois</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indiana State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indiana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iowa State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iowa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kansas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kent State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kentucky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maryland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michigan State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mississippi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Missouri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monmouth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Carolina-Greensboro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Carolina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northwestern State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notre Dame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ohio State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oklahoma State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oklahoma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penn State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Princeton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Providence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Joseph’s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Southern California</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Southern Utah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stanford</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syracuse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tennessee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Texas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utah State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virginia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wake Forest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Western Kentucky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winthrop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wisconsin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xavier</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -331,7 +338,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -339,5815 +346,5551 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51307243-3D3F-49D5-893E-2A58DBF42192}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:AA66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B47" activeCellId="0" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="35.90625" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="0" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A2">
+    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="0" t="n">
         <v>-8.86</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="0" t="n">
         <v>-13.61</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="0" t="n">
         <v>2135</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="0" t="n">
         <v>1980</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="0" t="n">
         <v>756</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="0" t="n">
         <v>1713</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="0" t="n">
         <v>165</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="0" t="n">
         <v>506</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="0" t="n">
         <v>458</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="0" t="n">
         <v>696</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="0" t="n">
         <v>386</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="0" t="n">
         <v>1175</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="0" t="n">
         <v>410</v>
       </c>
-      <c r="X2">
+      <c r="X2" s="0" t="n">
         <v>260</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" s="0" t="n">
         <v>93</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" s="0" t="n">
         <v>510</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" s="0" t="n">
         <v>502</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A3">
+    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0" t="n">
         <v>26.84</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="0" t="n">
         <v>12.56</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="0" t="n">
         <v>2926</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="0" t="n">
         <v>2386</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="0" t="n">
         <v>1015</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="0" t="n">
         <v>2131</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="0" t="n">
         <v>193</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="0" t="n">
         <v>544</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="0" t="n">
         <v>703</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="0" t="n">
         <v>940</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="0" t="n">
         <v>487</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="0" t="n">
         <v>1433</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="0" t="n">
         <v>585</v>
       </c>
-      <c r="X3">
+      <c r="X3" s="0" t="n">
         <v>283</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" s="0" t="n">
         <v>159</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" s="0" t="n">
         <v>546</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" s="0" t="n">
         <v>630</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A4">
+    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0" t="n">
         <v>16.61</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="0" t="n">
         <v>6.16</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="0" t="n">
         <v>2476</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="0" t="n">
         <v>2152</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="0" t="n">
         <v>881</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="0" t="n">
         <v>1990</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="0" t="n">
         <v>273</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="0" t="n">
         <v>741</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="0" t="n">
         <v>441</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="0" t="n">
         <v>639</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="0" t="n">
         <v>410</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="0" t="n">
         <v>1100</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="0" t="n">
         <v>476</v>
       </c>
-      <c r="X4">
+      <c r="X4" s="0" t="n">
         <v>365</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" s="0" t="n">
         <v>124</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" s="0" t="n">
         <v>451</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" s="0" t="n">
         <v>654</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A5">
+    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E5">
-        <v>17.989999999999998</v>
-      </c>
-      <c r="F5">
+      <c r="E5" s="0" t="n">
+        <v>17.99</v>
+      </c>
+      <c r="F5" s="0" t="n">
         <v>5.18</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="0" t="n">
         <v>2547</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="0" t="n">
         <v>2129</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="0" t="n">
         <v>879</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="0" t="n">
         <v>1934</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="0" t="n">
         <v>230</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="0" t="n">
         <v>651</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="0" t="n">
         <v>559</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="0" t="n">
         <v>788</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="0" t="n">
         <v>486</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="0" t="n">
         <v>1166</v>
       </c>
-      <c r="W5">
+      <c r="W5" s="0" t="n">
         <v>464</v>
       </c>
-      <c r="X5">
+      <c r="X5" s="0" t="n">
         <v>326</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" s="0" t="n">
         <v>97</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" s="0" t="n">
         <v>423</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" s="0" t="n">
         <v>652</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A6">
+    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="0" t="n">
         <v>10.94</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="0" t="n">
         <v>3.47</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="0" t="n">
         <v>2324</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="0" t="n">
         <v>2069</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="0" t="n">
         <v>744</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="0" t="n">
         <v>1620</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="0" t="n">
         <v>185</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="0" t="n">
         <v>485</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="0" t="n">
         <v>651</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="0" t="n">
         <v>835</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="0" t="n">
         <v>292</v>
       </c>
-      <c r="V6">
+      <c r="V6" s="0" t="n">
         <v>988</v>
       </c>
-      <c r="W6">
+      <c r="W6" s="0" t="n">
         <v>414</v>
       </c>
-      <c r="X6">
+      <c r="X6" s="0" t="n">
         <v>203</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" s="0" t="n">
         <v>108</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" s="0" t="n">
         <v>433</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" s="0" t="n">
         <v>491</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A7">
+    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="0" t="n">
         <v>12.55</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="0" t="n">
         <v>3.98</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="0" t="n">
         <v>2228</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="0" t="n">
         <v>1946</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="0" t="n">
         <v>755</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="0" t="n">
         <v>1643</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="0" t="n">
         <v>251</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="0" t="n">
         <v>617</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="0" t="n">
         <v>467</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="0" t="n">
         <v>652</v>
       </c>
-      <c r="U7">
+      <c r="U7" s="0" t="n">
         <v>305</v>
       </c>
-      <c r="V7">
+      <c r="V7" s="0" t="n">
         <v>922</v>
       </c>
-      <c r="W7">
+      <c r="W7" s="0" t="n">
         <v>388</v>
       </c>
-      <c r="X7">
+      <c r="X7" s="0" t="n">
         <v>222</v>
       </c>
-      <c r="Y7">
+      <c r="Y7" s="0" t="n">
         <v>89</v>
       </c>
-      <c r="Z7">
+      <c r="Z7" s="0" t="n">
         <v>377</v>
       </c>
-      <c r="AA7">
+      <c r="AA7" s="0" t="n">
         <v>505</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A8">
+    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="0" t="n">
         <v>5.94</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="0" t="n">
         <v>0.24</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="0" t="n">
         <v>2650</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="0" t="n">
         <v>2409</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="0" t="n">
         <v>910</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="0" t="n">
         <v>1842</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="0" t="n">
         <v>217</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="0" t="n">
         <v>547</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="0" t="n">
         <v>613</v>
       </c>
-      <c r="T8">
+      <c r="T8" s="0" t="n">
         <v>865</v>
       </c>
-      <c r="U8">
+      <c r="U8" s="0" t="n">
         <v>373</v>
       </c>
-      <c r="V8">
+      <c r="V8" s="0" t="n">
         <v>1158</v>
       </c>
-      <c r="W8">
+      <c r="W8" s="0" t="n">
         <v>608</v>
       </c>
-      <c r="X8">
+      <c r="X8" s="0" t="n">
         <v>267</v>
       </c>
-      <c r="Y8">
+      <c r="Y8" s="0" t="n">
         <v>77</v>
       </c>
-      <c r="Z8">
+      <c r="Z8" s="0" t="n">
         <v>489</v>
       </c>
-      <c r="AA8">
+      <c r="AA8" s="0" t="n">
         <v>716</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A9">
+    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="0" t="n">
         <v>14.76</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="0" t="n">
         <v>9.08</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="0" t="n">
         <v>2304</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="0" t="n">
         <v>2128</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="0" t="n">
         <v>813</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="0" t="n">
         <v>1699</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="0" t="n">
         <v>176</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="0" t="n">
         <v>503</v>
       </c>
-      <c r="S9">
+      <c r="S9" s="0" t="n">
         <v>502</v>
       </c>
-      <c r="T9">
+      <c r="T9" s="0" t="n">
         <v>732</v>
       </c>
-      <c r="U9">
+      <c r="U9" s="0" t="n">
         <v>281</v>
       </c>
-      <c r="V9">
+      <c r="V9" s="0" t="n">
         <v>998</v>
       </c>
-      <c r="W9">
+      <c r="W9" s="0" t="n">
         <v>508</v>
       </c>
-      <c r="X9">
+      <c r="X9" s="0" t="n">
         <v>225</v>
       </c>
-      <c r="Y9">
+      <c r="Y9" s="0" t="n">
         <v>66</v>
       </c>
-      <c r="Z9">
+      <c r="Z9" s="0" t="n">
         <v>424</v>
       </c>
-      <c r="AA9">
+      <c r="AA9" s="0" t="n">
         <v>570</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A10">
+    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
         <v>47</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="0" t="n">
         <v>14.24</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="0" t="n">
         <v>7.91</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="0" t="n">
         <v>2583</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="0" t="n">
         <v>2374</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="0" t="n">
         <v>873</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="0" t="n">
         <v>1998</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="0" t="n">
         <v>305</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="0" t="n">
         <v>848</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="0" t="n">
         <v>532</v>
       </c>
-      <c r="T10">
+      <c r="T10" s="0" t="n">
         <v>777</v>
       </c>
-      <c r="U10">
+      <c r="U10" s="0" t="n">
         <v>411</v>
       </c>
-      <c r="V10">
+      <c r="V10" s="0" t="n">
         <v>1267</v>
       </c>
-      <c r="W10">
+      <c r="W10" s="0" t="n">
         <v>471</v>
       </c>
-      <c r="X10">
+      <c r="X10" s="0" t="n">
         <v>231</v>
       </c>
-      <c r="Y10">
+      <c r="Y10" s="0" t="n">
         <v>97</v>
       </c>
-      <c r="Z10">
+      <c r="Z10" s="0" t="n">
         <v>418</v>
       </c>
-      <c r="AA10">
+      <c r="AA10" s="0" t="n">
         <v>663</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A11">
+    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E11">
-        <v>16.190000000000001</v>
-      </c>
-      <c r="F11">
+      <c r="E11" s="0" t="n">
+        <v>16.19</v>
+      </c>
+      <c r="F11" s="0" t="n">
         <v>7.84</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="0" t="n">
         <v>2586</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="0" t="n">
         <v>2294</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="0" t="n">
         <v>921</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="0" t="n">
         <v>2076</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="0" t="n">
         <v>214</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="S11">
+      <c r="S11" s="0" t="n">
         <v>530</v>
       </c>
-      <c r="T11">
+      <c r="T11" s="0" t="n">
         <v>760</v>
       </c>
-      <c r="U11">
+      <c r="U11" s="0" t="n">
         <v>464</v>
       </c>
-      <c r="V11">
+      <c r="V11" s="0" t="n">
         <v>1216</v>
       </c>
-      <c r="W11">
+      <c r="W11" s="0" t="n">
         <v>451</v>
       </c>
-      <c r="X11">
+      <c r="X11" s="0" t="n">
         <v>194</v>
       </c>
-      <c r="Y11">
+      <c r="Y11" s="0" t="n">
         <v>118</v>
       </c>
-      <c r="Z11">
+      <c r="Z11" s="0" t="n">
         <v>380</v>
       </c>
-      <c r="AA11">
+      <c r="AA11" s="0" t="n">
         <v>666</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A12">
+    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
         <v>63</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="0" t="n">
         <v>12.4</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="0" t="n">
         <v>2325</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="0" t="n">
         <v>2024</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="0" t="n">
         <v>788</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="0" t="n">
         <v>1782</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="0" t="n">
         <v>249</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="0" t="n">
         <v>694</v>
       </c>
-      <c r="S12">
+      <c r="S12" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="T12">
+      <c r="T12" s="0" t="n">
         <v>712</v>
       </c>
-      <c r="U12">
+      <c r="U12" s="0" t="n">
         <v>357</v>
       </c>
-      <c r="V12">
+      <c r="V12" s="0" t="n">
         <v>1084</v>
       </c>
-      <c r="W12">
+      <c r="W12" s="0" t="n">
         <v>490</v>
       </c>
-      <c r="X12">
+      <c r="X12" s="0" t="n">
         <v>293</v>
       </c>
-      <c r="Y12">
+      <c r="Y12" s="0" t="n">
         <v>114</v>
       </c>
-      <c r="Z12">
+      <c r="Z12" s="0" t="n">
         <v>426</v>
       </c>
-      <c r="AA12">
+      <c r="AA12" s="0" t="n">
         <v>646</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A13">
+    <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
         <v>74</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="0" t="n">
         <v>32.18</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="0" t="n">
         <v>11.98</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="0" t="n">
         <v>3538</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="0" t="n">
         <v>2750</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="0" t="n">
         <v>1217</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="0" t="n">
         <v>2530</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="0" t="n">
         <v>407</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="0" t="n">
         <v>1057</v>
       </c>
-      <c r="S13">
+      <c r="S13" s="0" t="n">
         <v>697</v>
       </c>
-      <c r="T13">
+      <c r="T13" s="0" t="n">
         <v>1002</v>
       </c>
-      <c r="U13">
+      <c r="U13" s="0" t="n">
         <v>538</v>
       </c>
-      <c r="V13">
+      <c r="V13" s="0" t="n">
         <v>1505</v>
       </c>
-      <c r="W13">
+      <c r="W13" s="0" t="n">
         <v>701</v>
       </c>
-      <c r="X13">
+      <c r="X13" s="0" t="n">
         <v>411</v>
       </c>
-      <c r="Y13">
+      <c r="Y13" s="0" t="n">
         <v>196</v>
       </c>
-      <c r="Z13">
+      <c r="Z13" s="0" t="n">
         <v>531</v>
       </c>
-      <c r="AA13">
+      <c r="AA13" s="0" t="n">
         <v>659</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A14">
+    <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
         <v>78</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="0" t="n">
         <v>0.99</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="0" t="n">
         <v>-2.46</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="0" t="n">
         <v>2564</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="0" t="n">
         <v>2439</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="0" t="n">
         <v>915</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="0" t="n">
         <v>1931</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="0" t="n">
         <v>230</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="0" t="n">
         <v>584</v>
       </c>
-      <c r="S14">
+      <c r="S14" s="0" t="n">
         <v>504</v>
       </c>
-      <c r="T14">
+      <c r="T14" s="0" t="n">
         <v>650</v>
       </c>
-      <c r="U14">
+      <c r="U14" s="0" t="n">
         <v>359</v>
       </c>
-      <c r="V14">
+      <c r="V14" s="0" t="n">
         <v>1124</v>
       </c>
-      <c r="W14">
+      <c r="W14" s="0" t="n">
         <v>514</v>
       </c>
-      <c r="X14">
+      <c r="X14" s="0" t="n">
         <v>197</v>
       </c>
-      <c r="Y14">
+      <c r="Y14" s="0" t="n">
         <v>116</v>
       </c>
-      <c r="Z14">
+      <c r="Z14" s="0" t="n">
         <v>427</v>
       </c>
-      <c r="AA14">
+      <c r="AA14" s="0" t="n">
         <v>577</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A15">
+    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="0" t="n">
         <v>21.32</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="0" t="n">
         <v>7.51</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="0" t="n">
         <v>2509</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="0" t="n">
         <v>2081</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="0" t="n">
         <v>849</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="0" t="n">
         <v>1764</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="0" t="n">
         <v>256</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="0" t="n">
         <v>668</v>
       </c>
-      <c r="S15">
+      <c r="S15" s="0" t="n">
         <v>555</v>
       </c>
-      <c r="T15">
+      <c r="T15" s="0" t="n">
         <v>761</v>
       </c>
-      <c r="U15">
+      <c r="U15" s="0" t="n">
         <v>319</v>
       </c>
-      <c r="V15">
+      <c r="V15" s="0" t="n">
         <v>1145</v>
       </c>
-      <c r="W15">
+      <c r="W15" s="0" t="n">
         <v>538</v>
       </c>
-      <c r="X15">
+      <c r="X15" s="0" t="n">
         <v>271</v>
       </c>
-      <c r="Y15">
+      <c r="Y15" s="0" t="n">
         <v>114</v>
       </c>
-      <c r="Z15">
+      <c r="Z15" s="0" t="n">
         <v>451</v>
       </c>
-      <c r="AA15">
+      <c r="AA15" s="0" t="n">
         <v>589</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A16">
+    <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="0" t="n">
         <v>15.66</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="0" t="n">
         <v>5.14</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="0" t="n">
         <v>2689</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="0" t="n">
         <v>2342</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="0" t="n">
         <v>954</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="0" t="n">
         <v>2030</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" s="0" t="n">
         <v>241</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="0" t="n">
         <v>678</v>
       </c>
-      <c r="S16">
+      <c r="S16" s="0" t="n">
         <v>540</v>
       </c>
-      <c r="T16">
+      <c r="T16" s="0" t="n">
         <v>793</v>
       </c>
-      <c r="U16">
+      <c r="U16" s="0" t="n">
         <v>389</v>
       </c>
-      <c r="V16">
+      <c r="V16" s="0" t="n">
         <v>1240</v>
       </c>
-      <c r="W16">
+      <c r="W16" s="0" t="n">
         <v>592</v>
       </c>
-      <c r="X16">
+      <c r="X16" s="0" t="n">
         <v>330</v>
       </c>
-      <c r="Y16">
+      <c r="Y16" s="0" t="n">
         <v>209</v>
       </c>
-      <c r="Z16">
+      <c r="Z16" s="0" t="n">
         <v>551</v>
       </c>
-      <c r="AA16">
+      <c r="AA16" s="0" t="n">
         <v>626</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A17">
+    <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
         <v>94</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="0" t="n">
         <v>5.12</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="0" t="n">
         <v>-0.35</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="0" t="n">
         <v>2127</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="0" t="n">
         <v>1963</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="0" t="n">
         <v>784</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="0" t="n">
         <v>1705</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" s="0" t="n">
         <v>142</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="0" t="n">
         <v>439</v>
       </c>
-      <c r="S17">
+      <c r="S17" s="0" t="n">
         <v>417</v>
       </c>
-      <c r="T17">
+      <c r="T17" s="0" t="n">
         <v>633</v>
       </c>
-      <c r="U17">
+      <c r="U17" s="0" t="n">
         <v>357</v>
       </c>
-      <c r="V17">
+      <c r="V17" s="0" t="n">
         <v>1018</v>
       </c>
-      <c r="W17">
+      <c r="W17" s="0" t="n">
         <v>411</v>
       </c>
-      <c r="X17">
+      <c r="X17" s="0" t="n">
         <v>252</v>
       </c>
-      <c r="Y17">
+      <c r="Y17" s="0" t="n">
         <v>129</v>
       </c>
-      <c r="Z17">
+      <c r="Z17" s="0" t="n">
         <v>429</v>
       </c>
-      <c r="AA17">
+      <c r="AA17" s="0" t="n">
         <v>544</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A18">
+    <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
         <v>96</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="0" t="n">
         <v>12.07</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="0" t="n">
         <v>1.58</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="0" t="n">
         <v>2574</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="0" t="n">
         <v>2228</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="0" t="n">
         <v>924</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="0" t="n">
         <v>2115</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" s="0" t="n">
         <v>186</v>
       </c>
-      <c r="R18">
+      <c r="R18" s="0" t="n">
         <v>561</v>
       </c>
-      <c r="S18">
+      <c r="S18" s="0" t="n">
         <v>540</v>
       </c>
-      <c r="T18">
+      <c r="T18" s="0" t="n">
         <v>817</v>
       </c>
-      <c r="U18">
+      <c r="U18" s="0" t="n">
         <v>607</v>
       </c>
-      <c r="V18">
+      <c r="V18" s="0" t="n">
         <v>1481</v>
       </c>
-      <c r="W18">
+      <c r="W18" s="0" t="n">
         <v>547</v>
       </c>
-      <c r="X18">
+      <c r="X18" s="0" t="n">
         <v>324</v>
       </c>
-      <c r="Y18">
+      <c r="Y18" s="0" t="n">
         <v>198</v>
       </c>
-      <c r="Z18">
+      <c r="Z18" s="0" t="n">
         <v>550</v>
       </c>
-      <c r="AA18">
+      <c r="AA18" s="0" t="n">
         <v>694</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A19">
+    <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
         <v>98</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="0" t="n">
         <v>5.25</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="0" t="n">
         <v>-3.72</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="0" t="n">
         <v>2701</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="0" t="n">
         <v>2337</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="0" t="n">
         <v>929</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="0" t="n">
         <v>2068</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" s="0" t="n">
         <v>276</v>
       </c>
-      <c r="R19">
+      <c r="R19" s="0" t="n">
         <v>780</v>
       </c>
-      <c r="S19">
+      <c r="S19" s="0" t="n">
         <v>567</v>
       </c>
-      <c r="T19">
+      <c r="T19" s="0" t="n">
         <v>808</v>
       </c>
-      <c r="U19">
+      <c r="U19" s="0" t="n">
         <v>441</v>
       </c>
-      <c r="V19">
+      <c r="V19" s="0" t="n">
         <v>1171</v>
       </c>
-      <c r="W19">
+      <c r="W19" s="0" t="n">
         <v>449</v>
       </c>
-      <c r="X19">
+      <c r="X19" s="0" t="n">
         <v>351</v>
       </c>
-      <c r="Y19">
+      <c r="Y19" s="0" t="n">
         <v>129</v>
       </c>
-      <c r="Z19">
+      <c r="Z19" s="0" t="n">
         <v>435</v>
       </c>
-      <c r="AA19">
+      <c r="AA19" s="0" t="n">
         <v>617</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A20">
+    <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="0" t="n">
         <v>14.51</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="0" t="n">
         <v>11.78</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="0" t="n">
         <v>2269</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="0" t="n">
         <v>2187</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="0" t="n">
         <v>776</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="0" t="n">
         <v>1822</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" s="0" t="n">
         <v>260</v>
       </c>
-      <c r="R20">
+      <c r="R20" s="0" t="n">
         <v>700</v>
       </c>
-      <c r="S20">
+      <c r="S20" s="0" t="n">
         <v>457</v>
       </c>
-      <c r="T20">
+      <c r="T20" s="0" t="n">
         <v>662</v>
       </c>
-      <c r="U20">
+      <c r="U20" s="0" t="n">
         <v>345</v>
       </c>
-      <c r="V20">
+      <c r="V20" s="0" t="n">
         <v>1125</v>
       </c>
-      <c r="W20">
+      <c r="W20" s="0" t="n">
         <v>488</v>
       </c>
-      <c r="X20">
+      <c r="X20" s="0" t="n">
         <v>238</v>
       </c>
-      <c r="Y20">
+      <c r="Y20" s="0" t="n">
         <v>136</v>
       </c>
-      <c r="Z20">
+      <c r="Z20" s="0" t="n">
         <v>474</v>
       </c>
-      <c r="AA20">
+      <c r="AA20" s="0" t="n">
         <v>645</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A21">
+    <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="0" t="n">
         <v>12.67</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="0" t="n">
         <v>12.71</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="0" t="n">
         <v>2257</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="0" t="n">
         <v>2258</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="0" t="n">
         <v>845</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="0" t="n">
         <v>1820</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" s="0" t="n">
         <v>142</v>
       </c>
-      <c r="R21">
+      <c r="R21" s="0" t="n">
         <v>411</v>
       </c>
-      <c r="S21">
+      <c r="S21" s="0" t="n">
         <v>425</v>
       </c>
-      <c r="T21">
+      <c r="T21" s="0" t="n">
         <v>632</v>
       </c>
-      <c r="U21">
+      <c r="U21" s="0" t="n">
         <v>397</v>
       </c>
-      <c r="V21">
+      <c r="V21" s="0" t="n">
         <v>1193</v>
       </c>
-      <c r="W21">
+      <c r="W21" s="0" t="n">
         <v>471</v>
       </c>
-      <c r="X21">
+      <c r="X21" s="0" t="n">
         <v>195</v>
       </c>
-      <c r="Y21">
+      <c r="Y21" s="0" t="n">
         <v>149</v>
       </c>
-      <c r="Z21">
+      <c r="Z21" s="0" t="n">
         <v>485</v>
       </c>
-      <c r="AA21">
+      <c r="AA21" s="0" t="n">
         <v>569</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A22">
+    <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
         <v>101</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="0" t="n">
         <v>12.57</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="0" t="n">
         <v>0.32</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="0" t="n">
         <v>2720</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="0" t="n">
         <v>2271</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="0" t="n">
         <v>915</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="0" t="n">
         <v>1793</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" s="0" t="n">
         <v>245</v>
       </c>
-      <c r="R22">
+      <c r="R22" s="0" t="n">
         <v>606</v>
       </c>
-      <c r="S22">
+      <c r="S22" s="0" t="n">
         <v>645</v>
       </c>
-      <c r="T22">
+      <c r="T22" s="0" t="n">
         <v>947</v>
       </c>
-      <c r="U22">
+      <c r="U22" s="0" t="n">
         <v>369</v>
       </c>
-      <c r="V22">
+      <c r="V22" s="0" t="n">
         <v>1265</v>
       </c>
-      <c r="W22">
+      <c r="W22" s="0" t="n">
         <v>537</v>
       </c>
-      <c r="X22">
+      <c r="X22" s="0" t="n">
         <v>191</v>
       </c>
-      <c r="Y22">
+      <c r="Y22" s="0" t="n">
         <v>135</v>
       </c>
-      <c r="Z22">
+      <c r="Z22" s="0" t="n">
         <v>472</v>
       </c>
-      <c r="AA22">
+      <c r="AA22" s="0" t="n">
         <v>619</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A23">
+    <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
         <v>104</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="0" t="n">
         <v>-3.67</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="0" t="n">
         <v>-10.6</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="0" t="n">
         <v>2471</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="0" t="n">
         <v>2246</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="P23">
+      <c r="P23" s="0" t="n">
         <v>1846</v>
       </c>
-      <c r="Q23">
+      <c r="Q23" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="R23">
+      <c r="R23" s="0" t="n">
         <v>575</v>
       </c>
-      <c r="S23">
+      <c r="S23" s="0" t="n">
         <v>571</v>
       </c>
-      <c r="T23">
+      <c r="T23" s="0" t="n">
         <v>835</v>
       </c>
-      <c r="U23">
+      <c r="U23" s="0" t="n">
         <v>434</v>
       </c>
-      <c r="V23">
+      <c r="V23" s="0" t="n">
         <v>1243</v>
       </c>
-      <c r="W23">
+      <c r="W23" s="0" t="n">
         <v>449</v>
       </c>
-      <c r="X23">
+      <c r="X23" s="0" t="n">
         <v>218</v>
       </c>
-      <c r="Y23">
+      <c r="Y23" s="0" t="n">
         <v>185</v>
       </c>
-      <c r="Z23">
+      <c r="Z23" s="0" t="n">
         <v>489</v>
       </c>
-      <c r="AA23">
+      <c r="AA23" s="0" t="n">
         <v>596</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A24">
+    <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
         <v>107</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="0" t="n">
         <v>6.89</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="0" t="n">
         <v>7.25</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="0" t="n">
         <v>2254</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="0" t="n">
         <v>2265</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="0" t="n">
         <v>797</v>
       </c>
-      <c r="P24">
+      <c r="P24" s="0" t="n">
         <v>1703</v>
       </c>
-      <c r="Q24">
+      <c r="Q24" s="0" t="n">
         <v>177</v>
       </c>
-      <c r="R24">
+      <c r="R24" s="0" t="n">
         <v>507</v>
       </c>
-      <c r="S24">
+      <c r="S24" s="0" t="n">
         <v>483</v>
       </c>
-      <c r="T24">
+      <c r="T24" s="0" t="n">
         <v>666</v>
       </c>
-      <c r="U24">
+      <c r="U24" s="0" t="n">
         <v>335</v>
       </c>
-      <c r="V24">
+      <c r="V24" s="0" t="n">
         <v>999</v>
       </c>
-      <c r="W24">
+      <c r="W24" s="0" t="n">
         <v>557</v>
       </c>
-      <c r="X24">
+      <c r="X24" s="0" t="n">
         <v>183</v>
       </c>
-      <c r="Y24">
+      <c r="Y24" s="0" t="n">
         <v>74</v>
       </c>
-      <c r="Z24">
+      <c r="Z24" s="0" t="n">
         <v>516</v>
       </c>
-      <c r="AA24">
+      <c r="AA24" s="0" t="n">
         <v>605</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A25">
+    <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
         <v>109</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E25">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="F25">
+      <c r="E25" s="0" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="F25" s="0" t="n">
         <v>-5.47</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="0" t="n">
         <v>2257</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="0" t="n">
         <v>1929</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="0" t="n">
         <v>784</v>
       </c>
-      <c r="P25">
+      <c r="P25" s="0" t="n">
         <v>1657</v>
       </c>
-      <c r="Q25">
+      <c r="Q25" s="0" t="n">
         <v>167</v>
       </c>
-      <c r="R25">
+      <c r="R25" s="0" t="n">
         <v>503</v>
       </c>
-      <c r="S25">
+      <c r="S25" s="0" t="n">
         <v>522</v>
       </c>
-      <c r="T25">
+      <c r="T25" s="0" t="n">
         <v>807</v>
       </c>
-      <c r="U25">
+      <c r="U25" s="0" t="n">
         <v>373</v>
       </c>
-      <c r="V25">
+      <c r="V25" s="0" t="n">
         <v>1166</v>
       </c>
-      <c r="W25">
+      <c r="W25" s="0" t="n">
         <v>414</v>
       </c>
-      <c r="X25">
+      <c r="X25" s="0" t="n">
         <v>237</v>
       </c>
-      <c r="Y25">
+      <c r="Y25" s="0" t="n">
         <v>119</v>
       </c>
-      <c r="Z25">
+      <c r="Z25" s="0" t="n">
         <v>511</v>
       </c>
-      <c r="AA25">
+      <c r="AA25" s="0" t="n">
         <v>547</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A26">
+    <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
         <v>110</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="0" t="n">
         <v>-0.31</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="0" t="n">
         <v>-5.84</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="0" t="n">
         <v>2034</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="0" t="n">
         <v>1868</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="0" t="n">
         <v>640</v>
       </c>
-      <c r="P26">
+      <c r="P26" s="0" t="n">
         <v>1437</v>
       </c>
-      <c r="Q26">
+      <c r="Q26" s="0" t="n">
         <v>136</v>
       </c>
-      <c r="R26">
+      <c r="R26" s="0" t="n">
         <v>388</v>
       </c>
-      <c r="S26">
+      <c r="S26" s="0" t="n">
         <v>618</v>
       </c>
-      <c r="T26">
+      <c r="T26" s="0" t="n">
         <v>940</v>
       </c>
-      <c r="U26">
+      <c r="U26" s="0" t="n">
         <v>388</v>
       </c>
-      <c r="V26">
+      <c r="V26" s="0" t="n">
         <v>1155</v>
       </c>
-      <c r="W26">
+      <c r="W26" s="0" t="n">
         <v>385</v>
       </c>
-      <c r="X26">
+      <c r="X26" s="0" t="n">
         <v>188</v>
       </c>
-      <c r="Y26">
+      <c r="Y26" s="0" t="n">
         <v>157</v>
       </c>
-      <c r="Z26">
+      <c r="Z26" s="0" t="n">
         <v>512</v>
       </c>
-      <c r="AA26">
+      <c r="AA26" s="0" t="n">
         <v>583</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A27">
+    <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
         <v>117</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="0" t="n">
         <v>23.32</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="0" t="n">
         <v>11.38</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="0" t="n">
         <v>2725</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="0" t="n">
         <v>2307</v>
       </c>
-      <c r="O27">
+      <c r="O27" s="0" t="n">
         <v>929</v>
       </c>
-      <c r="P27">
+      <c r="P27" s="0" t="n">
         <v>2046</v>
       </c>
-      <c r="Q27">
+      <c r="Q27" s="0" t="n">
         <v>247</v>
       </c>
-      <c r="R27">
+      <c r="R27" s="0" t="n">
         <v>678</v>
       </c>
-      <c r="S27">
+      <c r="S27" s="0" t="n">
         <v>620</v>
       </c>
-      <c r="T27">
+      <c r="T27" s="0" t="n">
         <v>880</v>
       </c>
-      <c r="U27">
+      <c r="U27" s="0" t="n">
         <v>479</v>
       </c>
-      <c r="V27">
+      <c r="V27" s="0" t="n">
         <v>1400</v>
       </c>
-      <c r="W27">
+      <c r="W27" s="0" t="n">
         <v>550</v>
       </c>
-      <c r="X27">
+      <c r="X27" s="0" t="n">
         <v>269</v>
       </c>
-      <c r="Y27">
+      <c r="Y27" s="0" t="n">
         <v>146</v>
       </c>
-      <c r="Z27">
+      <c r="Z27" s="0" t="n">
         <v>524</v>
       </c>
-      <c r="AA27">
+      <c r="AA27" s="0" t="n">
         <v>772</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A28">
+    <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
         <v>118</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="0" t="n">
         <v>6.95</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="0" t="n">
         <v>2.5</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="0" t="n">
         <v>2479</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="0" t="n">
         <v>2305</v>
       </c>
-      <c r="O28">
+      <c r="O28" s="0" t="n">
         <v>861</v>
       </c>
-      <c r="P28">
+      <c r="P28" s="0" t="n">
         <v>1872</v>
       </c>
-      <c r="Q28">
+      <c r="Q28" s="0" t="n">
         <v>213</v>
       </c>
-      <c r="R28">
+      <c r="R28" s="0" t="n">
         <v>594</v>
       </c>
-      <c r="S28">
+      <c r="S28" s="0" t="n">
         <v>544</v>
       </c>
-      <c r="T28">
+      <c r="T28" s="0" t="n">
         <v>772</v>
       </c>
-      <c r="U28">
+      <c r="U28" s="0" t="n">
         <v>334</v>
       </c>
-      <c r="V28">
+      <c r="V28" s="0" t="n">
         <v>1069</v>
       </c>
-      <c r="W28">
+      <c r="W28" s="0" t="n">
         <v>521</v>
       </c>
-      <c r="X28">
+      <c r="X28" s="0" t="n">
         <v>237</v>
       </c>
-      <c r="Y28">
+      <c r="Y28" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="Z28">
+      <c r="Z28" s="0" t="n">
         <v>402</v>
       </c>
-      <c r="AA28">
+      <c r="AA28" s="0" t="n">
         <v>576</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A29">
+    <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
         <v>119</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="E29">
-        <v>17.579999999999998</v>
-      </c>
-      <c r="F29">
+      <c r="E29" s="0" t="n">
+        <v>17.58</v>
+      </c>
+      <c r="F29" s="0" t="n">
         <v>11.05</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="0" t="n">
         <v>2408</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="0" t="n">
         <v>2186</v>
       </c>
-      <c r="O29">
+      <c r="O29" s="0" t="n">
         <v>858</v>
       </c>
-      <c r="P29">
+      <c r="P29" s="0" t="n">
         <v>1896</v>
       </c>
-      <c r="Q29">
+      <c r="Q29" s="0" t="n">
         <v>181</v>
       </c>
-      <c r="R29">
+      <c r="R29" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="S29">
+      <c r="S29" s="0" t="n">
         <v>511</v>
       </c>
-      <c r="T29">
+      <c r="T29" s="0" t="n">
         <v>804</v>
       </c>
-      <c r="U29">
+      <c r="U29" s="0" t="n">
         <v>377</v>
       </c>
-      <c r="V29">
+      <c r="V29" s="0" t="n">
         <v>1268</v>
       </c>
-      <c r="W29">
+      <c r="W29" s="0" t="n">
         <v>513</v>
       </c>
-      <c r="X29">
+      <c r="X29" s="0" t="n">
         <v>231</v>
       </c>
-      <c r="Y29">
+      <c r="Y29" s="0" t="n">
         <v>178</v>
       </c>
-      <c r="Z29">
+      <c r="Z29" s="0" t="n">
         <v>496</v>
       </c>
-      <c r="AA29">
+      <c r="AA29" s="0" t="n">
         <v>650</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A30">
+    <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="0" t="n">
         <v>0.25</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="0" t="n">
         <v>-4.09</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="0" t="n">
         <v>2549</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="0" t="n">
         <v>2375</v>
       </c>
-      <c r="O30">
+      <c r="O30" s="0" t="n">
         <v>912</v>
       </c>
-      <c r="P30">
+      <c r="P30" s="0" t="n">
         <v>1896</v>
       </c>
-      <c r="Q30">
+      <c r="Q30" s="0" t="n">
         <v>159</v>
       </c>
-      <c r="R30">
+      <c r="R30" s="0" t="n">
         <v>415</v>
       </c>
-      <c r="S30">
+      <c r="S30" s="0" t="n">
         <v>566</v>
       </c>
-      <c r="T30">
+      <c r="T30" s="0" t="n">
         <v>822</v>
       </c>
-      <c r="U30">
+      <c r="U30" s="0" t="n">
         <v>378</v>
       </c>
-      <c r="V30">
+      <c r="V30" s="0" t="n">
         <v>1239</v>
       </c>
-      <c r="W30">
+      <c r="W30" s="0" t="n">
         <v>481</v>
       </c>
-      <c r="X30">
+      <c r="X30" s="0" t="n">
         <v>259</v>
       </c>
-      <c r="Y30">
+      <c r="Y30" s="0" t="n">
         <v>183</v>
       </c>
-      <c r="Z30">
+      <c r="Z30" s="0" t="n">
         <v>557</v>
       </c>
-      <c r="AA30">
+      <c r="AA30" s="0" t="n">
         <v>717</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A31">
+    <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
         <v>121</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="0" t="n">
         <v>15.9</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="0" t="n">
         <v>4.87</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="M31">
+      <c r="M31" s="0" t="n">
         <v>2451</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="0" t="n">
         <v>2115</v>
       </c>
-      <c r="O31">
+      <c r="O31" s="0" t="n">
         <v>823</v>
       </c>
-      <c r="P31">
+      <c r="P31" s="0" t="n">
         <v>1735</v>
       </c>
-      <c r="Q31">
+      <c r="Q31" s="0" t="n">
         <v>182</v>
       </c>
-      <c r="R31">
+      <c r="R31" s="0" t="n">
         <v>436</v>
       </c>
-      <c r="S31">
+      <c r="S31" s="0" t="n">
         <v>623</v>
       </c>
-      <c r="T31">
+      <c r="T31" s="0" t="n">
         <v>856</v>
       </c>
-      <c r="U31">
+      <c r="U31" s="0" t="n">
         <v>375</v>
       </c>
-      <c r="V31">
+      <c r="V31" s="0" t="n">
         <v>1228</v>
       </c>
-      <c r="W31">
+      <c r="W31" s="0" t="n">
         <v>429</v>
       </c>
-      <c r="X31">
+      <c r="X31" s="0" t="n">
         <v>190</v>
       </c>
-      <c r="Y31">
+      <c r="Y31" s="0" t="n">
         <v>102</v>
       </c>
-      <c r="Z31">
+      <c r="Z31" s="0" t="n">
         <v>467</v>
       </c>
-      <c r="AA31">
+      <c r="AA31" s="0" t="n">
         <v>636</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A32">
+    <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
         <v>122</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="0" t="n">
         <v>14.24</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="0" t="n">
         <v>10.7</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="M32">
+      <c r="M32" s="0" t="n">
         <v>2593</v>
       </c>
-      <c r="N32">
+      <c r="N32" s="0" t="n">
         <v>2469</v>
       </c>
-      <c r="O32">
+      <c r="O32" s="0" t="n">
         <v>815</v>
       </c>
-      <c r="P32">
+      <c r="P32" s="0" t="n">
         <v>1895</v>
       </c>
-      <c r="Q32">
+      <c r="Q32" s="0" t="n">
         <v>210</v>
       </c>
-      <c r="R32">
+      <c r="R32" s="0" t="n">
         <v>573</v>
       </c>
-      <c r="S32">
+      <c r="S32" s="0" t="n">
         <v>753</v>
       </c>
-      <c r="T32">
+      <c r="T32" s="0" t="n">
         <v>1068</v>
       </c>
-      <c r="U32">
+      <c r="U32" s="0" t="n">
         <v>482</v>
       </c>
-      <c r="V32">
+      <c r="V32" s="0" t="n">
         <v>1351</v>
       </c>
-      <c r="W32">
+      <c r="W32" s="0" t="n">
         <v>474</v>
       </c>
-      <c r="X32">
+      <c r="X32" s="0" t="n">
         <v>191</v>
       </c>
-      <c r="Y32">
+      <c r="Y32" s="0" t="n">
         <v>83</v>
       </c>
-      <c r="Z32">
+      <c r="Z32" s="0" t="n">
         <v>520</v>
       </c>
-      <c r="AA32">
+      <c r="AA32" s="0" t="n">
         <v>783</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A33">
+    <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
         <v>129</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="0" t="n">
         <v>20.23</v>
       </c>
-      <c r="F33">
-        <v>9.0299999999999994</v>
-      </c>
-      <c r="G33">
+      <c r="F33" s="0" t="n">
+        <v>9.03</v>
+      </c>
+      <c r="G33" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="M33">
+      <c r="M33" s="0" t="n">
         <v>2707</v>
       </c>
-      <c r="N33">
+      <c r="N33" s="0" t="n">
         <v>2286</v>
       </c>
-      <c r="O33">
+      <c r="O33" s="0" t="n">
         <v>1002</v>
       </c>
-      <c r="P33">
+      <c r="P33" s="0" t="n">
         <v>1996</v>
       </c>
-      <c r="Q33">
+      <c r="Q33" s="0" t="n">
         <v>183</v>
       </c>
-      <c r="R33">
+      <c r="R33" s="0" t="n">
         <v>465</v>
       </c>
-      <c r="S33">
+      <c r="S33" s="0" t="n">
         <v>520</v>
       </c>
-      <c r="T33">
+      <c r="T33" s="0" t="n">
         <v>789</v>
       </c>
-      <c r="U33">
+      <c r="U33" s="0" t="n">
         <v>443</v>
       </c>
-      <c r="V33">
+      <c r="V33" s="0" t="n">
         <v>1407</v>
       </c>
-      <c r="W33">
+      <c r="W33" s="0" t="n">
         <v>641</v>
       </c>
-      <c r="X33">
+      <c r="X33" s="0" t="n">
         <v>217</v>
       </c>
-      <c r="Y33">
+      <c r="Y33" s="0" t="n">
         <v>170</v>
       </c>
-      <c r="Z33">
+      <c r="Z33" s="0" t="n">
         <v>532</v>
       </c>
-      <c r="AA33">
+      <c r="AA33" s="0" t="n">
         <v>648</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A34">
+    <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
         <v>130</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="0" t="n">
         <v>8.69</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="0" t="n">
         <v>1.44</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="M34">
+      <c r="M34" s="0" t="n">
         <v>2390</v>
       </c>
-      <c r="N34">
+      <c r="N34" s="0" t="n">
         <v>2117</v>
       </c>
-      <c r="O34">
+      <c r="O34" s="0" t="n">
         <v>823</v>
       </c>
-      <c r="P34">
+      <c r="P34" s="0" t="n">
         <v>1917</v>
       </c>
-      <c r="Q34">
+      <c r="Q34" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="R34">
+      <c r="R34" s="0" t="n">
         <v>516</v>
       </c>
-      <c r="S34">
+      <c r="S34" s="0" t="n">
         <v>564</v>
       </c>
-      <c r="T34">
+      <c r="T34" s="0" t="n">
         <v>739</v>
       </c>
-      <c r="U34">
+      <c r="U34" s="0" t="n">
         <v>403</v>
       </c>
-      <c r="V34">
+      <c r="V34" s="0" t="n">
         <v>1103</v>
       </c>
-      <c r="W34">
+      <c r="W34" s="0" t="n">
         <v>429</v>
       </c>
-      <c r="X34">
+      <c r="X34" s="0" t="n">
         <v>233</v>
       </c>
-      <c r="Y34">
+      <c r="Y34" s="0" t="n">
         <v>105</v>
       </c>
-      <c r="Z34">
+      <c r="Z34" s="0" t="n">
         <v>346</v>
       </c>
-      <c r="AA34">
+      <c r="AA34" s="0" t="n">
         <v>671</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A35">
+    <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
         <v>131</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="0" t="n">
         <v>20.27</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="0" t="n">
         <v>11.06</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="M35">
+      <c r="M35" s="0" t="n">
         <v>2713</v>
       </c>
-      <c r="N35">
+      <c r="N35" s="0" t="n">
         <v>2400</v>
       </c>
-      <c r="O35">
+      <c r="O35" s="0" t="n">
         <v>988</v>
       </c>
-      <c r="P35">
+      <c r="P35" s="0" t="n">
         <v>2051</v>
       </c>
-      <c r="Q35">
+      <c r="Q35" s="0" t="n">
         <v>245</v>
       </c>
-      <c r="R35">
+      <c r="R35" s="0" t="n">
         <v>708</v>
       </c>
-      <c r="S35">
+      <c r="S35" s="0" t="n">
         <v>492</v>
       </c>
-      <c r="T35">
+      <c r="T35" s="0" t="n">
         <v>751</v>
       </c>
-      <c r="U35">
+      <c r="U35" s="0" t="n">
         <v>464</v>
       </c>
-      <c r="V35">
+      <c r="V35" s="0" t="n">
         <v>1311</v>
       </c>
-      <c r="W35">
+      <c r="W35" s="0" t="n">
         <v>539</v>
       </c>
-      <c r="X35">
+      <c r="X35" s="0" t="n">
         <v>229</v>
       </c>
-      <c r="Y35">
+      <c r="Y35" s="0" t="n">
         <v>151</v>
       </c>
-      <c r="Z35">
+      <c r="Z35" s="0" t="n">
         <v>513</v>
       </c>
-      <c r="AA35">
+      <c r="AA35" s="0" t="n">
         <v>631</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A36">
+    <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
         <v>154</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="0" t="n">
         <v>23.82</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="0" t="n">
         <v>10.99</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="L36">
+      <c r="L36" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="M36">
+      <c r="M36" s="0" t="n">
         <v>3067</v>
       </c>
-      <c r="N36">
+      <c r="N36" s="0" t="n">
         <v>2605</v>
       </c>
-      <c r="O36">
+      <c r="O36" s="0" t="n">
         <v>1120</v>
       </c>
-      <c r="P36">
+      <c r="P36" s="0" t="n">
         <v>2313</v>
       </c>
-      <c r="Q36">
+      <c r="Q36" s="0" t="n">
         <v>205</v>
       </c>
-      <c r="R36">
+      <c r="R36" s="0" t="n">
         <v>540</v>
       </c>
-      <c r="S36">
+      <c r="S36" s="0" t="n">
         <v>622</v>
       </c>
-      <c r="T36">
+      <c r="T36" s="0" t="n">
         <v>894</v>
       </c>
-      <c r="U36">
+      <c r="U36" s="0" t="n">
         <v>543</v>
       </c>
-      <c r="V36">
+      <c r="V36" s="0" t="n">
         <v>1478</v>
       </c>
-      <c r="W36">
+      <c r="W36" s="0" t="n">
         <v>692</v>
       </c>
-      <c r="X36">
+      <c r="X36" s="0" t="n">
         <v>322</v>
       </c>
-      <c r="Y36">
+      <c r="Y36" s="0" t="n">
         <v>213</v>
       </c>
-      <c r="Z36">
+      <c r="Z36" s="0" t="n">
         <v>523</v>
       </c>
-      <c r="AA36">
+      <c r="AA36" s="0" t="n">
         <v>713</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A37">
+    <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
         <v>161</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="0" t="n">
         <v>25.12</v>
       </c>
-      <c r="F37">
-        <v>9.5399999999999991</v>
-      </c>
-      <c r="G37">
+      <c r="F37" s="0" t="n">
+        <v>9.54</v>
+      </c>
+      <c r="G37" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="M37">
+      <c r="M37" s="0" t="n">
         <v>2553</v>
       </c>
-      <c r="N37">
+      <c r="N37" s="0" t="n">
         <v>2039</v>
       </c>
-      <c r="O37">
+      <c r="O37" s="0" t="n">
         <v>957</v>
       </c>
-      <c r="P37">
+      <c r="P37" s="0" t="n">
         <v>1957</v>
       </c>
-      <c r="Q37">
+      <c r="Q37" s="0" t="n">
         <v>146</v>
       </c>
-      <c r="R37">
+      <c r="R37" s="0" t="n">
         <v>453</v>
       </c>
-      <c r="S37">
+      <c r="S37" s="0" t="n">
         <v>493</v>
       </c>
-      <c r="T37">
+      <c r="T37" s="0" t="n">
         <v>686</v>
       </c>
-      <c r="U37">
+      <c r="U37" s="0" t="n">
         <v>514</v>
       </c>
-      <c r="V37">
+      <c r="V37" s="0" t="n">
         <v>1404</v>
       </c>
-      <c r="W37">
+      <c r="W37" s="0" t="n">
         <v>579</v>
       </c>
-      <c r="X37">
+      <c r="X37" s="0" t="n">
         <v>210</v>
       </c>
-      <c r="Y37">
+      <c r="Y37" s="0" t="n">
         <v>133</v>
       </c>
-      <c r="Z37">
+      <c r="Z37" s="0" t="n">
         <v>451</v>
       </c>
-      <c r="AA37">
+      <c r="AA37" s="0" t="n">
         <v>611</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A38">
+    <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
         <v>168</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="0" t="n">
         <v>15.05</v>
       </c>
-      <c r="F38">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="G38">
+      <c r="F38" s="0" t="n">
+        <v>9.2</v>
+      </c>
+      <c r="G38" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="L38">
+      <c r="L38" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="M38">
+      <c r="M38" s="0" t="n">
         <v>2496</v>
       </c>
-      <c r="N38">
+      <c r="N38" s="0" t="n">
         <v>2262</v>
       </c>
-      <c r="O38">
+      <c r="O38" s="0" t="n">
         <v>865</v>
       </c>
-      <c r="P38">
+      <c r="P38" s="0" t="n">
         <v>1958</v>
       </c>
-      <c r="Q38">
+      <c r="Q38" s="0" t="n">
         <v>224</v>
       </c>
-      <c r="R38">
+      <c r="R38" s="0" t="n">
         <v>655</v>
       </c>
-      <c r="S38">
+      <c r="S38" s="0" t="n">
         <v>542</v>
       </c>
-      <c r="T38">
+      <c r="T38" s="0" t="n">
         <v>829</v>
       </c>
-      <c r="U38">
+      <c r="U38" s="0" t="n">
         <v>416</v>
       </c>
-      <c r="V38">
+      <c r="V38" s="0" t="n">
         <v>1227</v>
       </c>
-      <c r="W38">
+      <c r="W38" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="X38">
+      <c r="X38" s="0" t="n">
         <v>285</v>
       </c>
-      <c r="Y38">
+      <c r="Y38" s="0" t="n">
         <v>115</v>
       </c>
-      <c r="Z38">
+      <c r="Z38" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="AA38">
+      <c r="AA38" s="0" t="n">
         <v>719</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A39">
+    <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
         <v>171</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="0" t="n">
         <v>10.76</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="0" t="n">
         <v>9.19</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="L39">
+      <c r="L39" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="M39">
+      <c r="M39" s="0" t="n">
         <v>2493</v>
       </c>
-      <c r="N39">
+      <c r="N39" s="0" t="n">
         <v>2402</v>
       </c>
-      <c r="O39">
+      <c r="O39" s="0" t="n">
         <v>847</v>
       </c>
-      <c r="P39">
+      <c r="P39" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="Q39">
+      <c r="Q39" s="0" t="n">
         <v>279</v>
       </c>
-      <c r="R39">
+      <c r="R39" s="0" t="n">
         <v>734</v>
       </c>
-      <c r="S39">
+      <c r="S39" s="0" t="n">
         <v>520</v>
       </c>
-      <c r="T39">
+      <c r="T39" s="0" t="n">
         <v>742</v>
       </c>
-      <c r="U39">
+      <c r="U39" s="0" t="n">
         <v>466</v>
       </c>
-      <c r="V39">
+      <c r="V39" s="0" t="n">
         <v>1259</v>
       </c>
-      <c r="W39">
+      <c r="W39" s="0" t="n">
         <v>418</v>
       </c>
-      <c r="X39">
+      <c r="X39" s="0" t="n">
         <v>258</v>
       </c>
-      <c r="Y39">
+      <c r="Y39" s="0" t="n">
         <v>132</v>
       </c>
-      <c r="Z39">
+      <c r="Z39" s="0" t="n">
         <v>497</v>
       </c>
-      <c r="AA39">
+      <c r="AA39" s="0" t="n">
         <v>679</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A40">
+    <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
         <v>172</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="0" t="n">
         <v>-3.82</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="0" t="n">
         <v>-8.85</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="L40">
+      <c r="L40" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="M40">
+      <c r="M40" s="0" t="n">
         <v>2180</v>
       </c>
-      <c r="N40">
+      <c r="N40" s="0" t="n">
         <v>2024</v>
       </c>
-      <c r="O40">
+      <c r="O40" s="0" t="n">
         <v>756</v>
       </c>
-      <c r="P40">
+      <c r="P40" s="0" t="n">
         <v>1664</v>
       </c>
-      <c r="Q40">
+      <c r="Q40" s="0" t="n">
         <v>201</v>
       </c>
-      <c r="R40">
+      <c r="R40" s="0" t="n">
         <v>570</v>
       </c>
-      <c r="S40">
+      <c r="S40" s="0" t="n">
         <v>467</v>
       </c>
-      <c r="T40">
+      <c r="T40" s="0" t="n">
         <v>678</v>
       </c>
-      <c r="U40">
+      <c r="U40" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="V40">
+      <c r="V40" s="0" t="n">
         <v>1055</v>
       </c>
-      <c r="W40">
+      <c r="W40" s="0" t="n">
         <v>439</v>
       </c>
-      <c r="X40">
+      <c r="X40" s="0" t="n">
         <v>280</v>
       </c>
-      <c r="Y40">
+      <c r="Y40" s="0" t="n">
         <v>105</v>
       </c>
-      <c r="Z40">
+      <c r="Z40" s="0" t="n">
         <v>471</v>
       </c>
-      <c r="AA40">
+      <c r="AA40" s="0" t="n">
         <v>517</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A41">
+    <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
         <v>192</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E41">
-        <v>-5.0199999999999996</v>
-      </c>
-      <c r="F41">
+      <c r="E41" s="0" t="n">
+        <v>-5.02</v>
+      </c>
+      <c r="F41" s="0" t="n">
         <v>-5.85</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="L41">
+      <c r="L41" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="M41">
+      <c r="M41" s="0" t="n">
         <v>2282</v>
       </c>
-      <c r="N41">
+      <c r="N41" s="0" t="n">
         <v>2230</v>
       </c>
-      <c r="O41">
+      <c r="O41" s="0" t="n">
         <v>773</v>
       </c>
-      <c r="P41">
+      <c r="P41" s="0" t="n">
         <v>1741</v>
       </c>
-      <c r="Q41">
+      <c r="Q41" s="0" t="n">
         <v>184</v>
       </c>
-      <c r="R41">
+      <c r="R41" s="0" t="n">
         <v>480</v>
       </c>
-      <c r="S41">
+      <c r="S41" s="0" t="n">
         <v>552</v>
       </c>
-      <c r="T41">
+      <c r="T41" s="0" t="n">
         <v>718</v>
       </c>
-      <c r="U41">
+      <c r="U41" s="0" t="n">
         <v>343</v>
       </c>
-      <c r="V41">
+      <c r="V41" s="0" t="n">
         <v>1049</v>
       </c>
-      <c r="W41">
+      <c r="W41" s="0" t="n">
         <v>414</v>
       </c>
-      <c r="X41">
+      <c r="X41" s="0" t="n">
         <v>271</v>
       </c>
-      <c r="Y41">
+      <c r="Y41" s="0" t="n">
         <v>118</v>
       </c>
-      <c r="Z41">
+      <c r="Z41" s="0" t="n">
         <v>475</v>
       </c>
-      <c r="AA41">
+      <c r="AA41" s="0" t="n">
         <v>648</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A42">
+    <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
         <v>195</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="0" t="n">
         <v>19.95</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="0" t="n">
         <v>11.77</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="L42">
+      <c r="L42" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="M42">
+      <c r="M42" s="0" t="n">
         <v>2611</v>
       </c>
-      <c r="N42">
+      <c r="N42" s="0" t="n">
         <v>2341</v>
       </c>
-      <c r="O42">
+      <c r="O42" s="0" t="n">
         <v>945</v>
       </c>
-      <c r="P42">
+      <c r="P42" s="0" t="n">
         <v>1972</v>
       </c>
-      <c r="Q42">
+      <c r="Q42" s="0" t="n">
         <v>189</v>
       </c>
-      <c r="R42">
+      <c r="R42" s="0" t="n">
         <v>519</v>
       </c>
-      <c r="S42">
+      <c r="S42" s="0" t="n">
         <v>532</v>
       </c>
-      <c r="T42">
+      <c r="T42" s="0" t="n">
         <v>794</v>
       </c>
-      <c r="U42">
+      <c r="U42" s="0" t="n">
         <v>411</v>
       </c>
-      <c r="V42">
+      <c r="V42" s="0" t="n">
         <v>1363</v>
       </c>
-      <c r="W42">
+      <c r="W42" s="0" t="n">
         <v>576</v>
       </c>
-      <c r="X42">
+      <c r="X42" s="0" t="n">
         <v>244</v>
       </c>
-      <c r="Y42">
+      <c r="Y42" s="0" t="n">
         <v>184</v>
       </c>
-      <c r="Z42">
+      <c r="Z42" s="0" t="n">
         <v>518</v>
       </c>
-      <c r="AA42">
+      <c r="AA42" s="0" t="n">
         <v>576</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A43">
+    <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
         <v>201</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="0" t="n">
         <v>-11.1</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="0" t="n">
         <v>-7.82</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="L43">
+      <c r="L43" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="M43">
+      <c r="M43" s="0" t="n">
         <v>2292</v>
       </c>
-      <c r="N43">
+      <c r="N43" s="0" t="n">
         <v>2397</v>
       </c>
-      <c r="O43">
+      <c r="O43" s="0" t="n">
         <v>768</v>
       </c>
-      <c r="P43">
+      <c r="P43" s="0" t="n">
         <v>1856</v>
       </c>
-      <c r="Q43">
+      <c r="Q43" s="0" t="n">
         <v>175</v>
       </c>
-      <c r="R43">
+      <c r="R43" s="0" t="n">
         <v>551</v>
       </c>
-      <c r="S43">
+      <c r="S43" s="0" t="n">
         <v>581</v>
       </c>
-      <c r="T43">
+      <c r="T43" s="0" t="n">
         <v>877</v>
       </c>
-      <c r="U43">
+      <c r="U43" s="0" t="n">
         <v>410</v>
       </c>
-      <c r="V43">
+      <c r="V43" s="0" t="n">
         <v>1178</v>
       </c>
-      <c r="W43">
+      <c r="W43" s="0" t="n">
         <v>392</v>
       </c>
-      <c r="X43">
+      <c r="X43" s="0" t="n">
         <v>308</v>
       </c>
-      <c r="Y43">
+      <c r="Y43" s="0" t="n">
         <v>133</v>
       </c>
-      <c r="Z43">
+      <c r="Z43" s="0" t="n">
         <v>537</v>
       </c>
-      <c r="AA43">
+      <c r="AA43" s="0" t="n">
         <v>765</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A44">
+    <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
         <v>203</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="0" t="n">
         <v>14.35</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="0" t="n">
         <v>5.68</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="L44">
+      <c r="L44" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="M44">
+      <c r="M44" s="0" t="n">
         <v>2338</v>
       </c>
-      <c r="N44">
+      <c r="N44" s="0" t="n">
         <v>2078</v>
       </c>
-      <c r="O44">
+      <c r="O44" s="0" t="n">
         <v>814</v>
       </c>
-      <c r="P44">
+      <c r="P44" s="0" t="n">
         <v>1763</v>
       </c>
-      <c r="Q44">
+      <c r="Q44" s="0" t="n">
         <v>219</v>
       </c>
-      <c r="R44">
+      <c r="R44" s="0" t="n">
         <v>570</v>
       </c>
-      <c r="S44">
+      <c r="S44" s="0" t="n">
         <v>491</v>
       </c>
-      <c r="T44">
+      <c r="T44" s="0" t="n">
         <v>714</v>
       </c>
-      <c r="U44">
+      <c r="U44" s="0" t="n">
         <v>370</v>
       </c>
-      <c r="V44">
+      <c r="V44" s="0" t="n">
         <v>1214</v>
       </c>
-      <c r="W44">
+      <c r="W44" s="0" t="n">
         <v>527</v>
       </c>
-      <c r="X44">
+      <c r="X44" s="0" t="n">
         <v>199</v>
       </c>
-      <c r="Y44">
+      <c r="Y44" s="0" t="n">
         <v>178</v>
       </c>
-      <c r="Z44">
+      <c r="Z44" s="0" t="n">
         <v>434</v>
       </c>
-      <c r="AA44">
+      <c r="AA44" s="0" t="n">
         <v>501</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A45">
+    <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
         <v>205</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="0" t="n">
         <v>15.68</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="0" t="n">
         <v>8.17</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="L45">
+      <c r="L45" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="M45">
+      <c r="M45" s="0" t="n">
         <v>2206</v>
       </c>
-      <c r="N45">
+      <c r="N45" s="0" t="n">
         <v>1973</v>
       </c>
-      <c r="O45">
+      <c r="O45" s="0" t="n">
         <v>775</v>
       </c>
-      <c r="P45">
+      <c r="P45" s="0" t="n">
         <v>1645</v>
       </c>
-      <c r="Q45">
+      <c r="Q45" s="0" t="n">
         <v>169</v>
       </c>
-      <c r="R45">
+      <c r="R45" s="0" t="n">
         <v>443</v>
       </c>
-      <c r="S45">
+      <c r="S45" s="0" t="n">
         <v>487</v>
       </c>
-      <c r="T45">
+      <c r="T45" s="0" t="n">
         <v>697</v>
       </c>
-      <c r="U45">
+      <c r="U45" s="0" t="n">
         <v>355</v>
       </c>
-      <c r="V45">
+      <c r="V45" s="0" t="n">
         <v>1090</v>
       </c>
-      <c r="W45">
+      <c r="W45" s="0" t="n">
         <v>473</v>
       </c>
-      <c r="X45">
+      <c r="X45" s="0" t="n">
         <v>161</v>
       </c>
-      <c r="Y45">
+      <c r="Y45" s="0" t="n">
         <v>160</v>
       </c>
-      <c r="Z45">
+      <c r="Z45" s="0" t="n">
         <v>471</v>
       </c>
-      <c r="AA45">
+      <c r="AA45" s="0" t="n">
         <v>607</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A46">
+    <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
         <v>207</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="0" t="n">
         <v>10.81</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="0" t="n">
         <v>4.7</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="L46">
+      <c r="L46" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="M46">
+      <c r="M46" s="0" t="n">
         <v>2129</v>
       </c>
-      <c r="N46">
+      <c r="N46" s="0" t="n">
         <v>1936</v>
       </c>
-      <c r="O46">
+      <c r="O46" s="0" t="n">
         <v>767</v>
       </c>
-      <c r="P46">
+      <c r="P46" s="0" t="n">
         <v>1652</v>
       </c>
-      <c r="Q46">
+      <c r="Q46" s="0" t="n">
         <v>129</v>
       </c>
-      <c r="R46">
+      <c r="R46" s="0" t="n">
         <v>395</v>
       </c>
-      <c r="S46">
+      <c r="S46" s="0" t="n">
         <v>466</v>
       </c>
-      <c r="T46">
+      <c r="T46" s="0" t="n">
         <v>736</v>
       </c>
-      <c r="U46">
+      <c r="U46" s="0" t="n">
         <v>364</v>
       </c>
-      <c r="V46">
+      <c r="V46" s="0" t="n">
         <v>1139</v>
       </c>
-      <c r="W46">
+      <c r="W46" s="0" t="n">
         <v>406</v>
       </c>
-      <c r="X46">
+      <c r="X46" s="0" t="n">
         <v>241</v>
       </c>
-      <c r="Y46">
+      <c r="Y46" s="0" t="n">
         <v>115</v>
       </c>
-      <c r="Z46">
+      <c r="Z46" s="0" t="n">
         <v>506</v>
       </c>
-      <c r="AA46">
+      <c r="AA46" s="0" t="n">
         <v>568</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A47">
+    <row r="47" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
         <v>208</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="0" t="n">
         <v>15.54</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="0" t="n">
         <v>5.48</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="L47">
+      <c r="L47" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="M47">
+      <c r="M47" s="0" t="n">
         <v>2454</v>
       </c>
-      <c r="N47">
+      <c r="N47" s="0" t="n">
         <v>2122</v>
       </c>
-      <c r="O47">
+      <c r="O47" s="0" t="n">
         <v>859</v>
       </c>
-      <c r="P47">
+      <c r="P47" s="0" t="n">
         <v>1924</v>
       </c>
-      <c r="Q47">
+      <c r="Q47" s="0" t="n">
         <v>242</v>
       </c>
-      <c r="R47">
+      <c r="R47" s="0" t="n">
         <v>636</v>
       </c>
-      <c r="S47">
+      <c r="S47" s="0" t="n">
         <v>494</v>
       </c>
-      <c r="T47">
+      <c r="T47" s="0" t="n">
         <v>668</v>
       </c>
-      <c r="U47">
+      <c r="U47" s="0" t="n">
         <v>420</v>
       </c>
-      <c r="V47">
+      <c r="V47" s="0" t="n">
         <v>1184</v>
       </c>
-      <c r="W47">
+      <c r="W47" s="0" t="n">
         <v>444</v>
       </c>
-      <c r="X47">
+      <c r="X47" s="0" t="n">
         <v>281</v>
       </c>
-      <c r="Y47">
+      <c r="Y47" s="0" t="n">
         <v>91</v>
       </c>
-      <c r="Z47">
+      <c r="Z47" s="0" t="n">
         <v>420</v>
       </c>
-      <c r="AA47">
+      <c r="AA47" s="0" t="n">
         <v>706</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A48">
+    <row r="48" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
         <v>214</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="0" t="n">
         <v>12.42</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="0" t="n">
         <v>10.54</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="K48">
+      <c r="K48" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="L48">
+      <c r="L48" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="M48">
+      <c r="M48" s="0" t="n">
         <v>2535</v>
       </c>
-      <c r="N48">
+      <c r="N48" s="0" t="n">
         <v>2473</v>
       </c>
-      <c r="O48">
+      <c r="O48" s="0" t="n">
         <v>835</v>
       </c>
-      <c r="P48">
+      <c r="P48" s="0" t="n">
         <v>1962</v>
       </c>
-      <c r="Q48">
+      <c r="Q48" s="0" t="n">
         <v>278</v>
       </c>
-      <c r="R48">
+      <c r="R48" s="0" t="n">
         <v>757</v>
       </c>
-      <c r="S48">
+      <c r="S48" s="0" t="n">
         <v>587</v>
       </c>
-      <c r="T48">
+      <c r="T48" s="0" t="n">
         <v>768</v>
       </c>
-      <c r="U48">
+      <c r="U48" s="0" t="n">
         <v>349</v>
       </c>
-      <c r="V48">
+      <c r="V48" s="0" t="n">
         <v>1069</v>
       </c>
-      <c r="W48">
+      <c r="W48" s="0" t="n">
         <v>481</v>
       </c>
-      <c r="X48">
+      <c r="X48" s="0" t="n">
         <v>279</v>
       </c>
-      <c r="Y48">
+      <c r="Y48" s="0" t="n">
         <v>117</v>
       </c>
-      <c r="Z48">
+      <c r="Z48" s="0" t="n">
         <v>407</v>
       </c>
-      <c r="AA48">
+      <c r="AA48" s="0" t="n">
         <v>657</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A49">
+    <row r="49" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="n">
         <v>221</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="E49">
-        <v>-2.5299999999999998</v>
-      </c>
-      <c r="F49">
+      <c r="E49" s="0" t="n">
+        <v>-2.53</v>
+      </c>
+      <c r="F49" s="0" t="n">
         <v>-1.88</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="L49">
+      <c r="L49" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="M49">
+      <c r="M49" s="0" t="n">
         <v>1562</v>
       </c>
-      <c r="N49">
+      <c r="N49" s="0" t="n">
         <v>1569</v>
       </c>
-      <c r="O49">
+      <c r="O49" s="0" t="n">
         <v>540</v>
       </c>
-      <c r="P49">
+      <c r="P49" s="0" t="n">
         <v>1203</v>
       </c>
-      <c r="Q49">
+      <c r="Q49" s="0" t="n">
         <v>218</v>
       </c>
-      <c r="R49">
+      <c r="R49" s="0" t="n">
         <v>619</v>
       </c>
-      <c r="S49">
+      <c r="S49" s="0" t="n">
         <v>264</v>
       </c>
-      <c r="T49">
+      <c r="T49" s="0" t="n">
         <v>363</v>
       </c>
-      <c r="U49">
+      <c r="U49" s="0" t="n">
         <v>174</v>
       </c>
-      <c r="V49">
+      <c r="V49" s="0" t="n">
         <v>692</v>
       </c>
-      <c r="W49">
+      <c r="W49" s="0" t="n">
         <v>383</v>
       </c>
-      <c r="X49">
+      <c r="X49" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="Y49">
+      <c r="Y49" s="0" t="n">
         <v>61</v>
       </c>
-      <c r="Z49">
+      <c r="Z49" s="0" t="n">
         <v>340</v>
       </c>
-      <c r="AA49">
+      <c r="AA49" s="0" t="n">
         <v>456</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A50">
+    <row r="50" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
         <v>222</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="0" t="n">
         <v>13.74</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="0" t="n">
         <v>5.44</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="K50">
+      <c r="K50" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="L50">
+      <c r="L50" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="M50">
+      <c r="M50" s="0" t="n">
         <v>2359</v>
       </c>
-      <c r="N50">
+      <c r="N50" s="0" t="n">
         <v>2049</v>
       </c>
-      <c r="O50">
+      <c r="O50" s="0" t="n">
         <v>806</v>
       </c>
-      <c r="P50">
+      <c r="P50" s="0" t="n">
         <v>1809</v>
       </c>
-      <c r="Q50">
+      <c r="Q50" s="0" t="n">
         <v>249</v>
       </c>
-      <c r="R50">
+      <c r="R50" s="0" t="n">
         <v>622</v>
       </c>
-      <c r="S50">
+      <c r="S50" s="0" t="n">
         <v>498</v>
       </c>
-      <c r="T50">
+      <c r="T50" s="0" t="n">
         <v>693</v>
       </c>
-      <c r="U50">
+      <c r="U50" s="0" t="n">
         <v>391</v>
       </c>
-      <c r="V50">
+      <c r="V50" s="0" t="n">
         <v>1129</v>
       </c>
-      <c r="W50">
+      <c r="W50" s="0" t="n">
         <v>506</v>
       </c>
-      <c r="X50">
+      <c r="X50" s="0" t="n">
         <v>286</v>
       </c>
-      <c r="Y50">
+      <c r="Y50" s="0" t="n">
         <v>172</v>
       </c>
-      <c r="Z50">
+      <c r="Z50" s="0" t="n">
         <v>467</v>
       </c>
-      <c r="AA50">
+      <c r="AA50" s="0" t="n">
         <v>644</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A51">
+    <row r="51" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="n">
         <v>235</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="0" t="n">
         <v>12.72</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="0" t="n">
         <v>4.45</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K51">
+      <c r="K51" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="L51">
+      <c r="L51" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="M51">
+      <c r="M51" s="0" t="n">
         <v>2625</v>
       </c>
-      <c r="N51">
+      <c r="N51" s="0" t="n">
         <v>2352</v>
       </c>
-      <c r="O51">
+      <c r="O51" s="0" t="n">
         <v>905</v>
       </c>
-      <c r="P51">
+      <c r="P51" s="0" t="n">
         <v>1879</v>
       </c>
-      <c r="Q51">
+      <c r="Q51" s="0" t="n">
         <v>255</v>
       </c>
-      <c r="R51">
+      <c r="R51" s="0" t="n">
         <v>716</v>
       </c>
-      <c r="S51">
+      <c r="S51" s="0" t="n">
         <v>560</v>
       </c>
-      <c r="T51">
+      <c r="T51" s="0" t="n">
         <v>808</v>
       </c>
-      <c r="U51">
+      <c r="U51" s="0" t="n">
         <v>368</v>
       </c>
-      <c r="V51">
+      <c r="V51" s="0" t="n">
         <v>1241</v>
       </c>
-      <c r="W51">
+      <c r="W51" s="0" t="n">
         <v>590</v>
       </c>
-      <c r="X51">
+      <c r="X51" s="0" t="n">
         <v>204</v>
       </c>
-      <c r="Y51">
+      <c r="Y51" s="0" t="n">
         <v>128</v>
       </c>
-      <c r="Z51">
+      <c r="Z51" s="0" t="n">
         <v>479</v>
       </c>
-      <c r="AA51">
+      <c r="AA51" s="0" t="n">
         <v>652</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A52">
+    <row r="52" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="n">
         <v>254</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="0" t="n">
         <v>16.53</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="0" t="n">
         <v>10.83</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="K52">
+      <c r="K52" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="L52">
+      <c r="L52" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="M52">
+      <c r="M52" s="0" t="n">
         <v>2620</v>
       </c>
-      <c r="N52">
+      <c r="N52" s="0" t="n">
         <v>2420</v>
       </c>
-      <c r="O52">
+      <c r="O52" s="0" t="n">
         <v>898</v>
       </c>
-      <c r="P52">
+      <c r="P52" s="0" t="n">
         <v>1955</v>
       </c>
-      <c r="Q52">
+      <c r="Q52" s="0" t="n">
         <v>208</v>
       </c>
-      <c r="R52">
+      <c r="R52" s="0" t="n">
         <v>597</v>
       </c>
-      <c r="S52">
+      <c r="S52" s="0" t="n">
         <v>616</v>
       </c>
-      <c r="T52">
+      <c r="T52" s="0" t="n">
         <v>873</v>
       </c>
-      <c r="U52">
+      <c r="U52" s="0" t="n">
         <v>422</v>
       </c>
-      <c r="V52">
+      <c r="V52" s="0" t="n">
         <v>1250</v>
       </c>
-      <c r="W52">
+      <c r="W52" s="0" t="n">
         <v>514</v>
       </c>
-      <c r="X52">
+      <c r="X52" s="0" t="n">
         <v>259</v>
       </c>
-      <c r="Y52">
+      <c r="Y52" s="0" t="n">
         <v>151</v>
       </c>
-      <c r="Z52">
+      <c r="Z52" s="0" t="n">
         <v>512</v>
       </c>
-      <c r="AA52">
+      <c r="AA52" s="0" t="n">
         <v>617</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A53">
+    <row r="53" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="n">
         <v>258</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="0" t="n">
         <v>3.01</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="0" t="n">
         <v>-3.42</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="J53">
+      <c r="J53" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K53">
+      <c r="K53" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="L53">
+      <c r="L53" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="M53">
+      <c r="M53" s="0" t="n">
         <v>2243</v>
       </c>
-      <c r="N53">
+      <c r="N53" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="O53">
+      <c r="O53" s="0" t="n">
         <v>783</v>
       </c>
-      <c r="P53">
+      <c r="P53" s="0" t="n">
         <v>1602</v>
       </c>
-      <c r="Q53">
+      <c r="Q53" s="0" t="n">
         <v>197</v>
       </c>
-      <c r="R53">
+      <c r="R53" s="0" t="n">
         <v>493</v>
       </c>
-      <c r="S53">
+      <c r="S53" s="0" t="n">
         <v>480</v>
       </c>
-      <c r="T53">
+      <c r="T53" s="0" t="n">
         <v>673</v>
       </c>
-      <c r="U53">
+      <c r="U53" s="0" t="n">
         <v>335</v>
       </c>
-      <c r="V53">
+      <c r="V53" s="0" t="n">
         <v>997</v>
       </c>
-      <c r="W53">
+      <c r="W53" s="0" t="n">
         <v>462</v>
       </c>
-      <c r="X53">
+      <c r="X53" s="0" t="n">
         <v>321</v>
       </c>
-      <c r="Y53">
+      <c r="Y53" s="0" t="n">
         <v>87</v>
       </c>
-      <c r="Z53">
+      <c r="Z53" s="0" t="n">
         <v>470</v>
       </c>
-      <c r="AA53">
+      <c r="AA53" s="0" t="n">
         <v>613</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A54">
+    <row r="54" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="n">
         <v>263</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="0" t="n">
         <v>25.76</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="0" t="n">
         <v>9.86</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="J54">
+      <c r="J54" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K54">
+      <c r="K54" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="L54">
+      <c r="L54" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="M54">
+      <c r="M54" s="0" t="n">
         <v>2829</v>
       </c>
-      <c r="N54">
+      <c r="N54" s="0" t="n">
         <v>2226</v>
       </c>
-      <c r="O54">
+      <c r="O54" s="0" t="n">
         <v>953</v>
       </c>
-      <c r="P54">
+      <c r="P54" s="0" t="n">
         <v>1865</v>
       </c>
-      <c r="Q54">
+      <c r="Q54" s="0" t="n">
         <v>252</v>
       </c>
-      <c r="R54">
+      <c r="R54" s="0" t="n">
         <v>587</v>
       </c>
-      <c r="S54">
+      <c r="S54" s="0" t="n">
         <v>671</v>
       </c>
-      <c r="T54">
+      <c r="T54" s="0" t="n">
         <v>903</v>
       </c>
-      <c r="U54">
+      <c r="U54" s="0" t="n">
         <v>365</v>
       </c>
-      <c r="V54">
+      <c r="V54" s="0" t="n">
         <v>1244</v>
       </c>
-      <c r="W54">
+      <c r="W54" s="0" t="n">
         <v>568</v>
       </c>
-      <c r="X54">
+      <c r="X54" s="0" t="n">
         <v>187</v>
       </c>
-      <c r="Y54">
+      <c r="Y54" s="0" t="n">
         <v>108</v>
       </c>
-      <c r="Z54">
+      <c r="Z54" s="0" t="n">
         <v>438</v>
       </c>
-      <c r="AA54">
+      <c r="AA54" s="0" t="n">
         <v>778</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A55">
+    <row r="55" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="n">
         <v>267</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="0" t="n">
         <v>11.14</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="0" t="n">
         <v>5.82</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="J55">
+      <c r="J55" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K55">
+      <c r="K55" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="L55">
+      <c r="L55" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="M55">
+      <c r="M55" s="0" t="n">
         <v>2475</v>
       </c>
-      <c r="N55">
+      <c r="N55" s="0" t="n">
         <v>2294</v>
       </c>
-      <c r="O55">
+      <c r="O55" s="0" t="n">
         <v>885</v>
       </c>
-      <c r="P55">
+      <c r="P55" s="0" t="n">
         <v>2029</v>
       </c>
-      <c r="Q55">
+      <c r="Q55" s="0" t="n">
         <v>185</v>
       </c>
-      <c r="R55">
+      <c r="R55" s="0" t="n">
         <v>552</v>
       </c>
-      <c r="S55">
+      <c r="S55" s="0" t="n">
         <v>520</v>
       </c>
-      <c r="T55">
+      <c r="T55" s="0" t="n">
         <v>727</v>
       </c>
-      <c r="U55">
+      <c r="U55" s="0" t="n">
         <v>442</v>
       </c>
-      <c r="V55">
+      <c r="V55" s="0" t="n">
         <v>1311</v>
       </c>
-      <c r="W55">
+      <c r="W55" s="0" t="n">
         <v>545</v>
       </c>
-      <c r="X55">
+      <c r="X55" s="0" t="n">
         <v>325</v>
       </c>
-      <c r="Y55">
+      <c r="Y55" s="0" t="n">
         <v>203</v>
       </c>
-      <c r="Z55">
+      <c r="Z55" s="0" t="n">
         <v>441</v>
       </c>
-      <c r="AA55">
+      <c r="AA55" s="0" t="n">
         <v>681</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A56">
+    <row r="56" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="n">
         <v>268</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="0" t="n">
         <v>16.2</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="0" t="n">
         <v>9.77</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="J56">
+      <c r="J56" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="K56">
+      <c r="K56" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="L56">
+      <c r="L56" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="M56">
+      <c r="M56" s="0" t="n">
         <v>2604</v>
       </c>
-      <c r="N56">
+      <c r="N56" s="0" t="n">
         <v>2366</v>
       </c>
-      <c r="O56">
+      <c r="O56" s="0" t="n">
         <v>926</v>
       </c>
-      <c r="P56">
+      <c r="P56" s="0" t="n">
         <v>2168</v>
       </c>
-      <c r="Q56">
+      <c r="Q56" s="0" t="n">
         <v>281</v>
       </c>
-      <c r="R56">
+      <c r="R56" s="0" t="n">
         <v>815</v>
       </c>
-      <c r="S56">
+      <c r="S56" s="0" t="n">
         <v>471</v>
       </c>
-      <c r="T56">
+      <c r="T56" s="0" t="n">
         <v>673</v>
       </c>
-      <c r="U56">
+      <c r="U56" s="0" t="n">
         <v>494</v>
       </c>
-      <c r="V56">
+      <c r="V56" s="0" t="n">
         <v>1322</v>
       </c>
-      <c r="W56">
+      <c r="W56" s="0" t="n">
         <v>416</v>
       </c>
-      <c r="X56">
+      <c r="X56" s="0" t="n">
         <v>270</v>
       </c>
-      <c r="Y56">
+      <c r="Y56" s="0" t="n">
         <v>138</v>
       </c>
-      <c r="Z56">
+      <c r="Z56" s="0" t="n">
         <v>307</v>
       </c>
-      <c r="AA56">
+      <c r="AA56" s="0" t="n">
         <v>585</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A57">
+    <row r="57" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="n">
         <v>272</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="0" t="n">
         <v>15.49</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="0" t="n">
         <v>10.28</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="I57">
+      <c r="I57" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="J57">
+      <c r="J57" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="K57">
+      <c r="K57" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="L57">
+      <c r="L57" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="M57">
+      <c r="M57" s="0" t="n">
         <v>2668</v>
       </c>
-      <c r="N57">
+      <c r="N57" s="0" t="n">
         <v>2496</v>
       </c>
-      <c r="O57">
+      <c r="O57" s="0" t="n">
         <v>909</v>
       </c>
-      <c r="P57">
+      <c r="P57" s="0" t="n">
         <v>1980</v>
       </c>
-      <c r="Q57">
+      <c r="Q57" s="0" t="n">
         <v>257</v>
       </c>
-      <c r="R57">
+      <c r="R57" s="0" t="n">
         <v>697</v>
       </c>
-      <c r="S57">
+      <c r="S57" s="0" t="n">
         <v>593</v>
       </c>
-      <c r="T57">
+      <c r="T57" s="0" t="n">
         <v>872</v>
       </c>
-      <c r="U57">
+      <c r="U57" s="0" t="n">
         <v>421</v>
       </c>
-      <c r="V57">
+      <c r="V57" s="0" t="n">
         <v>1301</v>
       </c>
-      <c r="W57">
+      <c r="W57" s="0" t="n">
         <v>528</v>
       </c>
-      <c r="X57">
+      <c r="X57" s="0" t="n">
         <v>232</v>
       </c>
-      <c r="Y57">
+      <c r="Y57" s="0" t="n">
         <v>191</v>
       </c>
-      <c r="Z57">
+      <c r="Z57" s="0" t="n">
         <v>528</v>
       </c>
-      <c r="AA57">
+      <c r="AA57" s="0" t="n">
         <v>712</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A58">
+    <row r="58" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="n">
         <v>282</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="0" t="n">
         <v>14.25</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="0" t="n">
         <v>8.89</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="J58">
+      <c r="J58" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K58">
+      <c r="K58" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="L58">
+      <c r="L58" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="M58">
+      <c r="M58" s="0" t="n">
         <v>2396</v>
       </c>
-      <c r="N58">
+      <c r="N58" s="0" t="n">
         <v>2211</v>
       </c>
-      <c r="O58">
+      <c r="O58" s="0" t="n">
         <v>819</v>
       </c>
-      <c r="P58">
+      <c r="P58" s="0" t="n">
         <v>1990</v>
       </c>
-      <c r="Q58">
+      <c r="Q58" s="0" t="n">
         <v>215</v>
       </c>
-      <c r="R58">
+      <c r="R58" s="0" t="n">
         <v>626</v>
       </c>
-      <c r="S58">
+      <c r="S58" s="0" t="n">
         <v>543</v>
       </c>
-      <c r="T58">
+      <c r="T58" s="0" t="n">
         <v>835</v>
       </c>
-      <c r="U58">
+      <c r="U58" s="0" t="n">
         <v>483</v>
       </c>
-      <c r="V58">
+      <c r="V58" s="0" t="n">
         <v>1346</v>
       </c>
-      <c r="W58">
+      <c r="W58" s="0" t="n">
         <v>414</v>
       </c>
-      <c r="X58">
+      <c r="X58" s="0" t="n">
         <v>268</v>
       </c>
-      <c r="Y58">
+      <c r="Y58" s="0" t="n">
         <v>191</v>
       </c>
-      <c r="Z58">
+      <c r="Z58" s="0" t="n">
         <v>502</v>
       </c>
-      <c r="AA58">
+      <c r="AA58" s="0" t="n">
         <v>771</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A59">
+    <row r="59" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="n">
         <v>288</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="0" t="n">
         <v>17.13</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="0" t="n">
         <v>12.06</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="I59">
+      <c r="I59" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="J59">
+      <c r="J59" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="K59">
+      <c r="K59" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="L59">
+      <c r="L59" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="M59">
+      <c r="M59" s="0" t="n">
         <v>2544</v>
       </c>
-      <c r="N59">
+      <c r="N59" s="0" t="n">
         <v>2382</v>
       </c>
-      <c r="O59">
+      <c r="O59" s="0" t="n">
         <v>902</v>
       </c>
-      <c r="P59">
+      <c r="P59" s="0" t="n">
         <v>1947</v>
       </c>
-      <c r="Q59">
+      <c r="Q59" s="0" t="n">
         <v>190</v>
       </c>
-      <c r="R59">
+      <c r="R59" s="0" t="n">
         <v>535</v>
       </c>
-      <c r="S59">
+      <c r="S59" s="0" t="n">
         <v>550</v>
       </c>
-      <c r="T59">
+      <c r="T59" s="0" t="n">
         <v>829</v>
       </c>
-      <c r="U59">
+      <c r="U59" s="0" t="n">
         <v>441</v>
       </c>
-      <c r="V59">
+      <c r="V59" s="0" t="n">
         <v>1219</v>
       </c>
-      <c r="W59">
+      <c r="W59" s="0" t="n">
         <v>464</v>
       </c>
-      <c r="X59">
+      <c r="X59" s="0" t="n">
         <v>249</v>
       </c>
-      <c r="Y59">
+      <c r="Y59" s="0" t="n">
         <v>127</v>
       </c>
-      <c r="Z59">
+      <c r="Z59" s="0" t="n">
         <v>515</v>
       </c>
-      <c r="AA59">
+      <c r="AA59" s="0" t="n">
         <v>670</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A60">
+    <row r="60" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="n">
         <v>289</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="E60">
-        <v>9.9700000000000006</v>
-      </c>
-      <c r="F60">
+      <c r="E60" s="0" t="n">
+        <v>9.97</v>
+      </c>
+      <c r="F60" s="0" t="n">
         <v>-1.5</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="H60">
+      <c r="H60" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="I60">
+      <c r="I60" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="J60">
+      <c r="J60" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K60">
+      <c r="K60" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="L60">
+      <c r="L60" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="M60">
+      <c r="M60" s="0" t="n">
         <v>2404</v>
       </c>
-      <c r="N60">
+      <c r="N60" s="0" t="n">
         <v>1959</v>
       </c>
-      <c r="O60">
+      <c r="O60" s="0" t="n">
         <v>852</v>
       </c>
-      <c r="P60">
+      <c r="P60" s="0" t="n">
         <v>1755</v>
       </c>
-      <c r="Q60">
+      <c r="Q60" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="R60">
+      <c r="R60" s="0" t="n">
         <v>513</v>
       </c>
-      <c r="S60">
+      <c r="S60" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="T60">
+      <c r="T60" s="0" t="n">
         <v>743</v>
       </c>
-      <c r="U60">
+      <c r="U60" s="0" t="n">
         <v>370</v>
       </c>
-      <c r="V60">
+      <c r="V60" s="0" t="n">
         <v>1177</v>
       </c>
-      <c r="W60">
+      <c r="W60" s="0" t="n">
         <v>511</v>
       </c>
-      <c r="X60">
+      <c r="X60" s="0" t="n">
         <v>220</v>
       </c>
-      <c r="Y60">
+      <c r="Y60" s="0" t="n">
         <v>132</v>
       </c>
-      <c r="Z60">
+      <c r="Z60" s="0" t="n">
         <v>486</v>
       </c>
-      <c r="AA60">
+      <c r="AA60" s="0" t="n">
         <v>581</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A61">
+    <row r="61" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="n">
         <v>298</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="0" t="n">
         <v>18.93</v>
       </c>
-      <c r="F61">
-        <v>8.7200000000000006</v>
-      </c>
-      <c r="G61">
+      <c r="F61" s="0" t="n">
+        <v>8.72</v>
+      </c>
+      <c r="G61" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="I61">
+      <c r="I61" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="J61">
+      <c r="J61" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K61">
+      <c r="K61" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="L61">
+      <c r="L61" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="M61">
+      <c r="M61" s="0" t="n">
         <v>2464</v>
       </c>
-      <c r="N61">
+      <c r="N61" s="0" t="n">
         <v>2168</v>
       </c>
-      <c r="O61">
+      <c r="O61" s="0" t="n">
         <v>852</v>
       </c>
-      <c r="P61">
+      <c r="P61" s="0" t="n">
         <v>1872</v>
       </c>
-      <c r="Q61">
+      <c r="Q61" s="0" t="n">
         <v>204</v>
       </c>
-      <c r="R61">
+      <c r="R61" s="0" t="n">
         <v>553</v>
       </c>
-      <c r="S61">
+      <c r="S61" s="0" t="n">
         <v>556</v>
       </c>
-      <c r="T61">
+      <c r="T61" s="0" t="n">
         <v>755</v>
       </c>
-      <c r="U61">
+      <c r="U61" s="0" t="n">
         <v>437</v>
       </c>
-      <c r="V61">
+      <c r="V61" s="0" t="n">
         <v>1131</v>
       </c>
-      <c r="W61">
+      <c r="W61" s="0" t="n">
         <v>420</v>
       </c>
-      <c r="X61">
+      <c r="X61" s="0" t="n">
         <v>221</v>
       </c>
-      <c r="Y61">
+      <c r="Y61" s="0" t="n">
         <v>98</v>
       </c>
-      <c r="Z61">
+      <c r="Z61" s="0" t="n">
         <v>399</v>
       </c>
-      <c r="AA61">
+      <c r="AA61" s="0" t="n">
         <v>590</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A62">
+    <row r="62" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="0" t="n">
         <v>20.53</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="0" t="n">
         <v>10.5</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="H62">
+      <c r="H62" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="I62">
+      <c r="I62" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="J62">
+      <c r="J62" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="K62">
+      <c r="K62" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="L62">
+      <c r="L62" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="M62">
+      <c r="M62" s="0" t="n">
         <v>2296</v>
       </c>
-      <c r="N62">
+      <c r="N62" s="0" t="n">
         <v>1995</v>
       </c>
-      <c r="O62">
+      <c r="O62" s="0" t="n">
         <v>838</v>
       </c>
-      <c r="P62">
+      <c r="P62" s="0" t="n">
         <v>1815</v>
       </c>
-      <c r="Q62">
+      <c r="Q62" s="0" t="n">
         <v>177</v>
       </c>
-      <c r="R62">
+      <c r="R62" s="0" t="n">
         <v>494</v>
       </c>
-      <c r="S62">
+      <c r="S62" s="0" t="n">
         <v>443</v>
       </c>
-      <c r="T62">
+      <c r="T62" s="0" t="n">
         <v>609</v>
       </c>
-      <c r="U62">
+      <c r="U62" s="0" t="n">
         <v>342</v>
       </c>
-      <c r="V62">
+      <c r="V62" s="0" t="n">
         <v>1104</v>
       </c>
-      <c r="W62">
+      <c r="W62" s="0" t="n">
         <v>465</v>
       </c>
-      <c r="X62">
+      <c r="X62" s="0" t="n">
         <v>219</v>
       </c>
-      <c r="Y62">
+      <c r="Y62" s="0" t="n">
         <v>136</v>
       </c>
-      <c r="Z62">
+      <c r="Z62" s="0" t="n">
         <v>375</v>
       </c>
-      <c r="AA62">
+      <c r="AA62" s="0" t="n">
         <v>572</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A63">
+    <row r="63" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="n">
         <v>307</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="0" t="n">
         <v>8.67</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="0" t="n">
         <v>-1.65</v>
       </c>
-      <c r="G63">
+      <c r="G63" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="H63">
+      <c r="H63" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="I63">
+      <c r="I63" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="J63">
+      <c r="J63" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K63">
+      <c r="K63" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="L63">
+      <c r="L63" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="M63">
+      <c r="M63" s="0" t="n">
         <v>2303</v>
       </c>
-      <c r="N63">
+      <c r="N63" s="0" t="n">
         <v>1889</v>
       </c>
-      <c r="O63">
+      <c r="O63" s="0" t="n">
         <v>812</v>
       </c>
-      <c r="P63">
+      <c r="P63" s="0" t="n">
         <v>1789</v>
       </c>
-      <c r="Q63">
+      <c r="Q63" s="0" t="n">
         <v>213</v>
       </c>
-      <c r="R63">
+      <c r="R63" s="0" t="n">
         <v>605</v>
       </c>
-      <c r="S63">
+      <c r="S63" s="0" t="n">
         <v>466</v>
       </c>
-      <c r="T63">
+      <c r="T63" s="0" t="n">
         <v>674</v>
       </c>
-      <c r="U63">
+      <c r="U63" s="0" t="n">
         <v>441</v>
       </c>
-      <c r="V63">
+      <c r="V63" s="0" t="n">
         <v>1240</v>
       </c>
-      <c r="W63">
+      <c r="W63" s="0" t="n">
         <v>452</v>
       </c>
-      <c r="X63">
+      <c r="X63" s="0" t="n">
         <v>246</v>
       </c>
-      <c r="Y63">
+      <c r="Y63" s="0" t="n">
         <v>155</v>
       </c>
-      <c r="Z63">
+      <c r="Z63" s="0" t="n">
         <v>453</v>
       </c>
-      <c r="AA63">
+      <c r="AA63" s="0" t="n">
         <v>588</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A64">
+    <row r="64" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="n">
         <v>311</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="0" t="n">
         <v>-3.73</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="0" t="n">
         <v>-7.8</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="H64">
+      <c r="H64" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="I64">
+      <c r="I64" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="J64">
+      <c r="J64" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K64">
+      <c r="K64" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="L64">
+      <c r="L64" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="M64">
+      <c r="M64" s="0" t="n">
         <v>2037</v>
       </c>
-      <c r="N64">
+      <c r="N64" s="0" t="n">
         <v>1917</v>
       </c>
-      <c r="O64">
+      <c r="O64" s="0" t="n">
         <v>684</v>
       </c>
-      <c r="P64">
+      <c r="P64" s="0" t="n">
         <v>1676</v>
       </c>
-      <c r="Q64">
+      <c r="Q64" s="0" t="n">
         <v>215</v>
       </c>
-      <c r="R64">
+      <c r="R64" s="0" t="n">
         <v>613</v>
       </c>
-      <c r="S64">
+      <c r="S64" s="0" t="n">
         <v>454</v>
       </c>
-      <c r="T64">
+      <c r="T64" s="0" t="n">
         <v>661</v>
       </c>
-      <c r="U64">
+      <c r="U64" s="0" t="n">
         <v>398</v>
       </c>
-      <c r="V64">
+      <c r="V64" s="0" t="n">
         <v>1103</v>
       </c>
-      <c r="W64">
+      <c r="W64" s="0" t="n">
         <v>351</v>
       </c>
-      <c r="X64">
+      <c r="X64" s="0" t="n">
         <v>223</v>
       </c>
-      <c r="Y64">
+      <c r="Y64" s="0" t="n">
         <v>78</v>
       </c>
-      <c r="Z64">
+      <c r="Z64" s="0" t="n">
         <v>441</v>
       </c>
-      <c r="AA64">
+      <c r="AA64" s="0" t="n">
         <v>610</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A65">
+    <row r="65" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="n">
         <v>312</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="0" t="n">
         <v>14.9</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="0" t="n">
         <v>12.08</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="H65">
+      <c r="H65" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="J65">
+      <c r="J65" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K65">
+      <c r="K65" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="L65">
+      <c r="L65" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="M65">
+      <c r="M65" s="0" t="n">
         <v>1723</v>
       </c>
-      <c r="N65">
+      <c r="N65" s="0" t="n">
         <v>1641</v>
       </c>
-      <c r="O65">
+      <c r="O65" s="0" t="n">
         <v>575</v>
       </c>
-      <c r="P65">
+      <c r="P65" s="0" t="n">
         <v>1349</v>
       </c>
-      <c r="Q65">
+      <c r="Q65" s="0" t="n">
         <v>174</v>
       </c>
-      <c r="R65">
+      <c r="R65" s="0" t="n">
         <v>477</v>
       </c>
-      <c r="S65">
+      <c r="S65" s="0" t="n">
         <v>399</v>
       </c>
-      <c r="T65">
+      <c r="T65" s="0" t="n">
         <v>568</v>
       </c>
-      <c r="U65">
+      <c r="U65" s="0" t="n">
         <v>233</v>
       </c>
-      <c r="V65">
+      <c r="V65" s="0" t="n">
         <v>869</v>
       </c>
-      <c r="W65">
+      <c r="W65" s="0" t="n">
         <v>358</v>
       </c>
-      <c r="X65">
+      <c r="X65" s="0" t="n">
         <v>172</v>
       </c>
-      <c r="Y65">
+      <c r="Y65" s="0" t="n">
         <v>68</v>
       </c>
-      <c r="Z65">
+      <c r="Z65" s="0" t="n">
         <v>337</v>
       </c>
-      <c r="AA65">
+      <c r="AA65" s="0" t="n">
         <v>520</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A66">
+    <row r="66" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="n">
         <v>316</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="0" t="n">
         <v>12.14</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="0" t="n">
         <v>4.59</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="H66">
+      <c r="H66" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="I66">
+      <c r="I66" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="J66">
+      <c r="J66" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K66">
+      <c r="K66" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="L66">
+      <c r="L66" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="M66">
+      <c r="M66" s="0" t="n">
         <v>2130</v>
       </c>
-      <c r="N66">
+      <c r="N66" s="0" t="n">
         <v>1911</v>
       </c>
-      <c r="O66">
+      <c r="O66" s="0" t="n">
         <v>706</v>
       </c>
-      <c r="P66">
+      <c r="P66" s="0" t="n">
         <v>1653</v>
       </c>
-      <c r="Q66">
+      <c r="Q66" s="0" t="n">
         <v>178</v>
       </c>
-      <c r="R66">
+      <c r="R66" s="0" t="n">
         <v>587</v>
       </c>
-      <c r="S66">
+      <c r="S66" s="0" t="n">
         <v>540</v>
       </c>
-      <c r="T66">
+      <c r="T66" s="0" t="n">
         <v>768</v>
       </c>
-      <c r="U66">
+      <c r="U66" s="0" t="n">
         <v>391</v>
       </c>
-      <c r="V66">
+      <c r="V66" s="0" t="n">
         <v>1125</v>
       </c>
-      <c r="W66">
+      <c r="W66" s="0" t="n">
         <v>398</v>
       </c>
-      <c r="X66">
+      <c r="X66" s="0" t="n">
         <v>208</v>
       </c>
-      <c r="Y66">
+      <c r="Y66" s="0" t="n">
         <v>115</v>
       </c>
-      <c r="Z66">
+      <c r="Z66" s="0" t="n">
         <v>415</v>
       </c>
-      <c r="AA66">
+      <c r="AA66" s="0" t="n">
         <v>551</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>